--- a/Sandbox/File_Structure_Images.xlsx
+++ b/Sandbox/File_Structure_Images.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ea875a0d4a1c30/Desktop/Coding_Projects/Text_ML_Classification_UMN/Text_ML_Classification_UMN/Sandbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkrei\OneDrive\Desktop\Coding_Projects\Text_ML_Classification_UMN\Text_ML_Classification_UMN\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0BE7F7C6-368F-4FA4-BAAA-4C12536F115E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E4881B98-2B59-4E2B-8D43-E8F27F3B497C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Libraries" sheetId="2" r:id="rId1"/>
+    <sheet name="File_Images" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,10 +31,227 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
+    <t>Conda Install</t>
+  </si>
+  <si>
+    <t>Pip Install</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Colorsys</t>
+  </si>
+  <si>
+    <t>Gensim</t>
+  </si>
+  <si>
+    <t>conda install -c anaconda gensim</t>
+  </si>
+  <si>
+    <t>pip install gensim</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/gensim/</t>
+  </si>
+  <si>
+    <t>Ipywidgets</t>
+  </si>
+  <si>
+    <t>conda install -c conda-forge ipywidgets</t>
+  </si>
+  <si>
+    <t>pip install ipywidgets</t>
+  </si>
+  <si>
+    <t>https://ipywidgets.readthedocs.io/en/stable/user_install.html</t>
+  </si>
+  <si>
+    <t>Markdown2</t>
+  </si>
+  <si>
+    <t>conda install -c anaconda markdown2 </t>
+  </si>
+  <si>
+    <t>pip install markdown2</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/markdown2/</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>conda install -c auto mathematics</t>
+  </si>
+  <si>
+    <t>pip install mathematics</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mathematics/</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>conda install -c conda-forge matplotlib </t>
+  </si>
+  <si>
+    <t>python -m pip install -U matplotlib</t>
+  </si>
+  <si>
+    <t>https://matplotlib.org/users/installing.html</t>
+  </si>
+  <si>
+    <t>nltk</t>
+  </si>
+  <si>
+    <t>conda install -c anaconda nltk </t>
+  </si>
+  <si>
+    <t>pip install nltk</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nltk/</t>
+  </si>
+  <si>
+    <t>conda install -c anaconda numpy</t>
+  </si>
+  <si>
+    <t>pip install numpy</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/numpy/</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>conda install pandas</t>
+  </si>
+  <si>
+    <t>pip install pandas</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/stable/install.html</t>
+  </si>
+  <si>
+    <t>Pathlib</t>
+  </si>
+  <si>
+    <t>conda install -c menpo pathlib </t>
+  </si>
+  <si>
+    <t>pip install pathlib</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pathlib/</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>conda install -c conda-forge regex </t>
+  </si>
+  <si>
+    <t>pip install regex</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/regex/</t>
+  </si>
+  <si>
+    <t>Scipy</t>
+  </si>
+  <si>
+    <t>conda install -c anaconda scipy</t>
+  </si>
+  <si>
+    <t>pip install scipy</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/scipy/</t>
+  </si>
+  <si>
+    <t>Seaborn</t>
+  </si>
+  <si>
+    <t>conda install seaborn</t>
+  </si>
+  <si>
+    <t>pip install seaborn</t>
+  </si>
+  <si>
+    <t>https://seaborn.pydata.org/installing.html</t>
+  </si>
+  <si>
+    <t>Shutil</t>
+  </si>
+  <si>
+    <t>conda install -c conda-forge pytest-shutil </t>
+  </si>
+  <si>
+    <t>pip install pytest-shutil</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pytest-shutil/</t>
+  </si>
+  <si>
+    <t>Sklearn</t>
+  </si>
+  <si>
+    <t>conda install scikit-learn</t>
+  </si>
+  <si>
+    <t>pip install -U scikit-learn</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/install.html</t>
+  </si>
+  <si>
+    <t>Sys</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tqdm</t>
+  </si>
+  <si>
+    <t>conda install -c conda-forge tqdm</t>
+  </si>
+  <si>
+    <t>pip install tqdm</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/tqdm/</t>
+  </si>
+  <si>
+    <t>Numpy 20.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,6 +1797,753 @@
 </file>
 
 <file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -7343,6 +8312,1882 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{D3B457E7-44FE-4643-8219-505036533927}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Root</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BAC1602F-5B14-40D3-BE27-29681A38E0E9}" type="parTrans" cxnId="{7C2B901E-080A-4B4D-93D0-E0A6B38CA301}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5AE0105A-06FB-46A9-8ADE-12F16BC5D307}" type="sibTrans" cxnId="{7C2B901E-080A-4B4D-93D0-E0A6B38CA301}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4FD2F069-D1F9-4C76-A595-2B0BC88052FB}" type="parTrans" cxnId="{CE22A736-798B-414A-9E76-F95B91AE48D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB0089AE-BC9C-4F61-8440-DE545FD9517A}" type="sibTrans" cxnId="{CE22A736-798B-414A-9E76-F95B91AE48D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D87968CB-437F-4D72-8168-8BDA123155AA}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Train</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{130472F5-B87E-403A-A7E2-305D94543FAF}" type="parTrans" cxnId="{AF48957C-6DA1-46BA-8071-2ABD799701C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8015DA3-A4F5-40C1-8A06-F599524B9B69}" type="sibTrans" cxnId="{AF48957C-6DA1-46BA-8071-2ABD799701C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Predicting</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4A14C6E3-EE27-4070-A214-FDA6CB281E43}" type="parTrans" cxnId="{4D780CCF-B361-44D4-ACC0-7A8BE99DB3CA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{357E8881-980E-44CF-AF61-EA01B9F30C5F}" type="sibTrans" cxnId="{4D780CCF-B361-44D4-ACC0-7A8BE99DB3CA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Model 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BD2FA59E-C65A-4FAB-89F6-8820F566172C}" type="parTrans" cxnId="{A59C4E94-92A2-4F81-AAA4-EDDAA60CD587}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8DA2532F-4D18-48E3-9C9C-7E58A9546554}" type="sibTrans" cxnId="{A59C4E94-92A2-4F81-AAA4-EDDAA60CD587}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{15661C8F-A942-46D3-8945-0E203EBAEC45}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{87591C9D-18B7-4CD6-9F72-9DBBC9F0E4F4}" type="parTrans" cxnId="{0759701D-53F9-47DD-B231-4E252F320A11}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3917C27F-79DA-460D-95CE-3201A35A1754}" type="sibTrans" cxnId="{0759701D-53F9-47DD-B231-4E252F320A11}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Vectorizers</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{347CA47C-13B2-453C-9615-0B7A0D06D21D}" type="parTrans" cxnId="{4BFFDBCC-3601-4E82-937C-1B9EAAFA8655}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{52D2E8B3-F327-4285-BC38-B7919855B90E}" type="sibTrans" cxnId="{4BFFDBCC-3601-4E82-937C-1B9EAAFA8655}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Metadata</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B01C506C-9ECC-41E3-BBCF-03B5A86ACE18}" type="parTrans" cxnId="{975016A3-D028-4103-8FBC-3196CC8B98C8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A7DFAE67-38F3-4DE6-A228-C3CBE375792A}" type="sibTrans" cxnId="{975016A3-D028-4103-8FBC-3196CC8B98C8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>CSV</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9CA08359-9BA4-465A-B016-A31CFBB38677}" type="parTrans" cxnId="{675D51FF-AF82-4930-AD9C-4EF5CF03D7AB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F2D4CA09-30D6-447E-97EF-E56A22BE3CCD}" type="sibTrans" cxnId="{675D51FF-AF82-4930-AD9C-4EF5CF03D7AB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EC34B237-49A1-4DBD-B0AF-0243C0158418}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD89DDF5-DDD9-4773-9C28-8FDD53C4BBCF}" type="parTrans" cxnId="{B80602A7-25CF-4C40-B7D7-C277DE663BDF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3BFD1CC-ECFE-4B39-8FF6-BB848FB210C9}" type="sibTrans" cxnId="{B80602A7-25CF-4C40-B7D7-C277DE663BDF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FE5D050E-6456-48B2-B2DE-350722D782B2}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Images</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D32B3839-4EA0-423D-B6A8-D4FEDB53835F}" type="parTrans" cxnId="{6B8D05C7-CE14-4869-98F6-E56A84470421}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0657D978-78F1-4EF8-B9D1-D17CC28CB53E}" type="sibTrans" cxnId="{6B8D05C7-CE14-4869-98F6-E56A84470421}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{79BF427E-1122-43C4-9694-7D36E694B08D}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E7A97419-D9B6-4CF6-8526-23C729839883}" type="parTrans" cxnId="{FA7F0976-9246-45AF-9C61-E560784EFFD2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BB3A6022-45C1-4C35-B3F1-0029AB3B7BCD}" type="sibTrans" cxnId="{FA7F0976-9246-45AF-9C61-E560784EFFD2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>CSV</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55D709D2-7C07-42BE-865B-5A10C4CD1DD3}" type="parTrans" cxnId="{72B51063-24BB-4074-8D8F-5DBFA3AE06B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6679C4C3-769C-445D-B1CC-34591F0099EA}" type="sibTrans" cxnId="{72B51063-24BB-4074-8D8F-5DBFA3AE06B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B311C78-3BCA-4417-A72D-996887CD6876}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>History</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{79196D40-E45D-45E2-98D4-973DE21D6386}" type="parTrans" cxnId="{1CA4E70C-47BB-48F0-A33F-240D84FEB449}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2FCF418B-901C-482B-A692-FCD82BF7B785}" type="sibTrans" cxnId="{1CA4E70C-47BB-48F0-A33F-240D84FEB449}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10AD7FB1-5673-4790-9F2B-9A89749604B9}" type="parTrans" cxnId="{302D7136-BDD1-4605-AFB6-480E3D5A066D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{520F9043-4272-4277-BFEE-63F3DA41B3DF}" type="sibTrans" cxnId="{302D7136-BDD1-4605-AFB6-480E3D5A066D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Analyze</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D35EF94B-5B99-484C-BA41-719DBD74ED1D}" type="parTrans" cxnId="{E9CF34A8-D35C-4429-AF8F-598FF0CF5240}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{356560DF-F547-4686-881E-D8E551641FD0}" type="sibTrans" cxnId="{E9CF34A8-D35C-4429-AF8F-598FF0CF5240}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF6D66D5-C811-44C6-A377-6B81071937AC}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01BE0608-B6B8-446F-9D8D-BB21132A1662}" type="parTrans" cxnId="{C0FDE4ED-8098-4552-A9DE-01B9A18613B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FA2012FE-527C-4DB8-82A6-29153DD0FED1}" type="sibTrans" cxnId="{C0FDE4ED-8098-4552-A9DE-01B9A18613B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F214D91A-39DB-4B5A-9167-16725B036C28}">
+      <dgm:prSet phldrT="[Text]">
+        <dgm:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </dgm:style>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>ipynb</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3562DCD6-DC0D-4446-A0B6-36472746B3D3}" type="parTrans" cxnId="{00181889-3E50-4B03-A9BF-AB5C1C512E2E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E599B5E3-E106-4F39-A5A3-A72C71E9F9AC}" type="sibTrans" cxnId="{00181889-3E50-4B03-A9BF-AB5C1C512E2E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{32A34F89-87B7-4A0A-AB48-87A3888A9120}" type="pres">
+      <dgm:prSet presAssocID="{D3B457E7-44FE-4643-8219-505036533927}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:orgChart val="1"/>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B3049636-F373-4EDA-87C5-ACDD2CF1BB54}" type="pres">
+      <dgm:prSet presAssocID="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" presName="hierRoot1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4ED367E-A4F9-4000-A527-D403535B9799}" type="pres">
+      <dgm:prSet presAssocID="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" presName="rootComposite1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9D90140D-12A9-48EE-BE1E-CD59A7ADB807}" type="pres">
+      <dgm:prSet presAssocID="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D28C14FB-B854-484A-9C5D-2274BA988DC5}" type="pres">
+      <dgm:prSet presAssocID="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" type="pres">
+      <dgm:prSet presAssocID="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77EF6835-9C69-48BB-A1BB-C3E8E460BD33}" type="pres">
+      <dgm:prSet presAssocID="{4FD2F069-D1F9-4C76-A595-2B0BC88052FB}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A355250B-BABC-4211-9886-8E5033596501}" type="pres">
+      <dgm:prSet presAssocID="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9BBBB98C-9268-42F2-9383-92DFCFFF9FA1}" type="pres">
+      <dgm:prSet presAssocID="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{435A6278-380D-4F4B-B253-AE6D2EE5BEE7}" type="pres">
+      <dgm:prSet presAssocID="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF1B73C5-7E0D-4A7C-88B9-05B31FDF8394}" type="pres">
+      <dgm:prSet presAssocID="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{172F1231-0C6F-47A3-A6F4-45ADA6A31F27}" type="pres">
+      <dgm:prSet presAssocID="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3E327282-0478-4CF9-B25B-8F7933DEBDD1}" type="pres">
+      <dgm:prSet presAssocID="{BD2FA59E-C65A-4FAB-89F6-8820F566172C}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C28CA4D-B74D-4ED7-8F74-4BA02B38A39C}" type="pres">
+      <dgm:prSet presAssocID="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1B12899F-879C-4C70-B9A7-E6CBEDEC6E40}" type="pres">
+      <dgm:prSet presAssocID="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CD7732E3-20FF-46AD-90D9-501FAEB87E5A}" type="pres">
+      <dgm:prSet presAssocID="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2884EF3E-2FFA-4108-B510-9A790768AE8E}" type="pres">
+      <dgm:prSet presAssocID="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" type="pres">
+      <dgm:prSet presAssocID="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{39016D2F-521F-4096-A05F-8FEE5FDD6CE7}" type="pres">
+      <dgm:prSet presAssocID="{87591C9D-18B7-4CD6-9F72-9DBBC9F0E4F4}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B93F70CC-9C44-4F34-A643-0EEE40FF79DF}" type="pres">
+      <dgm:prSet presAssocID="{15661C8F-A942-46D3-8945-0E203EBAEC45}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{177F88AA-DF8B-4E63-B8E7-BC292C470E9A}" type="pres">
+      <dgm:prSet presAssocID="{15661C8F-A942-46D3-8945-0E203EBAEC45}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5789A0CC-91D6-40FC-A70B-E030D43B9186}" type="pres">
+      <dgm:prSet presAssocID="{15661C8F-A942-46D3-8945-0E203EBAEC45}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C1E03DA-085F-44B6-B71F-BFCA71CF12CC}" type="pres">
+      <dgm:prSet presAssocID="{15661C8F-A942-46D3-8945-0E203EBAEC45}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CE635AB2-5D69-42E6-A2E4-D3426E822AB0}" type="pres">
+      <dgm:prSet presAssocID="{15661C8F-A942-46D3-8945-0E203EBAEC45}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{511B20B1-5A9D-45CA-AF7D-370ED39EC526}" type="pres">
+      <dgm:prSet presAssocID="{15661C8F-A942-46D3-8945-0E203EBAEC45}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1521F57A-92BB-4AD3-B870-2787061D8AF2}" type="pres">
+      <dgm:prSet presAssocID="{347CA47C-13B2-453C-9615-0B7A0D06D21D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D926D3EB-30AC-4897-B737-CFEA1756CED3}" type="pres">
+      <dgm:prSet presAssocID="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A3EA17D2-1A77-48D1-9E31-5813979813E9}" type="pres">
+      <dgm:prSet presAssocID="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9C024EB4-4216-47D4-B7AE-82314E1F1FD5}" type="pres">
+      <dgm:prSet presAssocID="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6A771FCC-D9EB-4439-85AD-383C7098FC22}" type="pres">
+      <dgm:prSet presAssocID="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{575EA6BC-A7E4-4955-BE45-8C97F2890381}" type="pres">
+      <dgm:prSet presAssocID="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E26A561C-A33B-42BD-A901-09A33DEE6CC5}" type="pres">
+      <dgm:prSet presAssocID="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D478D909-F0B2-4509-8309-ABFCFDEDD80A}" type="pres">
+      <dgm:prSet presAssocID="{B01C506C-9ECC-41E3-BBCF-03B5A86ACE18}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6BFC1C13-BF2E-49BD-98DD-F367A53EF3C5}" type="pres">
+      <dgm:prSet presAssocID="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08CABDF4-5DA7-434B-907B-EAADBAA125BA}" type="pres">
+      <dgm:prSet presAssocID="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F555515-392E-4630-AD45-7855EC487D60}" type="pres">
+      <dgm:prSet presAssocID="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6247E144-BD3F-4891-BB9B-843A9AF07F99}" type="pres">
+      <dgm:prSet presAssocID="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{904FE2E1-68E6-4B0E-94A5-617664985448}" type="pres">
+      <dgm:prSet presAssocID="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BCBCC08B-229B-46B8-B054-7213D15F4B11}" type="pres">
+      <dgm:prSet presAssocID="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{27E339FD-0A41-405B-A965-1930DA30B400}" type="pres">
+      <dgm:prSet presAssocID="{9CA08359-9BA4-465A-B016-A31CFBB38677}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F1E06992-A70D-40EF-B010-289386625F37}" type="pres">
+      <dgm:prSet presAssocID="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{032A3170-6D2D-4224-BBC8-AC538AD90458}" type="pres">
+      <dgm:prSet presAssocID="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{97B51F5B-E36A-475B-9B89-AEB65BFE4751}" type="pres">
+      <dgm:prSet presAssocID="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C832F61-715A-48E1-A638-560FC90AD7F5}" type="pres">
+      <dgm:prSet presAssocID="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CE4F3849-B878-498A-8062-3A583E15C0FA}" type="pres">
+      <dgm:prSet presAssocID="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3AF27A22-09C4-4DBC-995E-E2A80B5741C3}" type="pres">
+      <dgm:prSet presAssocID="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8E32D240-EA77-4C13-A9C7-0D786504A02A}" type="pres">
+      <dgm:prSet presAssocID="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{900C807C-A237-425A-B04D-D3DFAD484A83}" type="pres">
+      <dgm:prSet presAssocID="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0AF4B038-E147-42CC-A417-D40ABA702CE2}" type="pres">
+      <dgm:prSet presAssocID="{130472F5-B87E-403A-A7E2-305D94543FAF}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{05AC1B33-E19F-4F22-B742-27B5ABD1FC8F}" type="pres">
+      <dgm:prSet presAssocID="{D87968CB-437F-4D72-8168-8BDA123155AA}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8250E194-D839-43B8-80BA-A2DFEC51EE83}" type="pres">
+      <dgm:prSet presAssocID="{D87968CB-437F-4D72-8168-8BDA123155AA}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3EA73C0B-2AA8-49C9-9F6D-A27B29186052}" type="pres">
+      <dgm:prSet presAssocID="{D87968CB-437F-4D72-8168-8BDA123155AA}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2360443-FCC2-4AA0-ADF3-23A777FE5E9C}" type="pres">
+      <dgm:prSet presAssocID="{D87968CB-437F-4D72-8168-8BDA123155AA}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{120FBA30-B698-47E8-90D9-DCCAC8407040}" type="pres">
+      <dgm:prSet presAssocID="{D87968CB-437F-4D72-8168-8BDA123155AA}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A24AB40C-088C-448E-AFE9-6C05E68DB465}" type="pres">
+      <dgm:prSet presAssocID="{DD89DDF5-DDD9-4773-9C28-8FDD53C4BBCF}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B0C2AD77-9C9B-4618-B32E-C171D5E0584D}" type="pres">
+      <dgm:prSet presAssocID="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2289E3FB-1A7D-4465-B149-79DB85BE7ACB}" type="pres">
+      <dgm:prSet presAssocID="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A39ADBBD-C982-4020-B3E1-8D9896A81BC1}" type="pres">
+      <dgm:prSet presAssocID="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D375DF16-C7F5-4306-AD80-6F091FE35EFB}" type="pres">
+      <dgm:prSet presAssocID="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4C5BEDE-7FAC-407B-8F5E-1A8AF440A4C7}" type="pres">
+      <dgm:prSet presAssocID="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3D11D0B-AC0F-40FE-AAAC-52FDD8C5E346}" type="pres">
+      <dgm:prSet presAssocID="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8030FAF3-8B3C-4567-BE5A-075CD01E5B82}" type="pres">
+      <dgm:prSet presAssocID="{D87968CB-437F-4D72-8168-8BDA123155AA}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7EFB4F87-E8DB-46E5-9F96-6FC1837C263D}" type="pres">
+      <dgm:prSet presAssocID="{3562DCD6-DC0D-4446-A0B6-36472746B3D3}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ABEF65B2-7567-4978-9F2A-E931D48552C2}" type="pres">
+      <dgm:prSet presAssocID="{F214D91A-39DB-4B5A-9167-16725B036C28}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2E668245-2DB8-49EE-8364-4C2EE4F93E8A}" type="pres">
+      <dgm:prSet presAssocID="{F214D91A-39DB-4B5A-9167-16725B036C28}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{93CEC41D-3533-4094-8E96-A9FF1ECC00A0}" type="pres">
+      <dgm:prSet presAssocID="{F214D91A-39DB-4B5A-9167-16725B036C28}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A3566A9F-493F-485D-889D-ED6485EC6C7E}" type="pres">
+      <dgm:prSet presAssocID="{F214D91A-39DB-4B5A-9167-16725B036C28}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2DB10E1-B767-4D38-A886-B33DD11DC113}" type="pres">
+      <dgm:prSet presAssocID="{F214D91A-39DB-4B5A-9167-16725B036C28}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9652F178-17AB-441E-8780-D2228A9E5322}" type="pres">
+      <dgm:prSet presAssocID="{F214D91A-39DB-4B5A-9167-16725B036C28}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{03BB564C-4DF1-4E05-A0CC-26CEEB7F72C3}" type="pres">
+      <dgm:prSet presAssocID="{D35EF94B-5B99-484C-BA41-719DBD74ED1D}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE2F8E39-C529-43F8-BC39-B0BB677E320C}" type="pres">
+      <dgm:prSet presAssocID="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6148B286-48F9-4A6B-8637-496A94816B22}" type="pres">
+      <dgm:prSet presAssocID="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1553333B-4009-44AA-A04C-9AC60B344723}" type="pres">
+      <dgm:prSet presAssocID="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2C4A0373-2C54-4774-BDEE-713F7B059F13}" type="pres">
+      <dgm:prSet presAssocID="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5AD658D1-B3D6-4103-8C84-8D00FA7B5135}" type="pres">
+      <dgm:prSet presAssocID="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7FA49DC4-A94D-4A09-8B7E-482F66DEF5FB}" type="pres">
+      <dgm:prSet presAssocID="{01BE0608-B6B8-446F-9D8D-BB21132A1662}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{137276D7-C884-4E40-830C-A45FB2BE23EC}" type="pres">
+      <dgm:prSet presAssocID="{FF6D66D5-C811-44C6-A377-6B81071937AC}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64BE6D8B-5902-4FE3-9B69-221AEF52D91A}" type="pres">
+      <dgm:prSet presAssocID="{FF6D66D5-C811-44C6-A377-6B81071937AC}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5F06955-6995-48FB-9DFD-CC1941007D0E}" type="pres">
+      <dgm:prSet presAssocID="{FF6D66D5-C811-44C6-A377-6B81071937AC}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D476C80C-6F2D-4AE4-BFAE-D98C199D347E}" type="pres">
+      <dgm:prSet presAssocID="{FF6D66D5-C811-44C6-A377-6B81071937AC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{57862AF1-4BAF-45B7-A97B-D316DD790793}" type="pres">
+      <dgm:prSet presAssocID="{FF6D66D5-C811-44C6-A377-6B81071937AC}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C08824E1-CAA4-41AD-8FEA-C4470E2A2B13}" type="pres">
+      <dgm:prSet presAssocID="{FF6D66D5-C811-44C6-A377-6B81071937AC}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24DA9052-2E96-4F70-BACC-7BB7829C70A7}" type="pres">
+      <dgm:prSet presAssocID="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A0165A9E-7D49-4BBB-B647-FDDADD06AD2A}" type="pres">
+      <dgm:prSet presAssocID="{4A14C6E3-EE27-4070-A214-FDA6CB281E43}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DE192776-0347-4C5E-8966-3B041B72D6A1}" type="pres">
+      <dgm:prSet presAssocID="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{114725CF-8DCC-4806-A493-53712B185F5C}" type="pres">
+      <dgm:prSet presAssocID="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC1BA703-F4DF-4539-9CAD-231B632F155A}" type="pres">
+      <dgm:prSet presAssocID="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F2157CF2-7B59-47BE-854F-E53CC478B9F1}" type="pres">
+      <dgm:prSet presAssocID="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" type="pres">
+      <dgm:prSet presAssocID="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{245F04D5-8494-41C8-8678-30B5F2EBD06D}" type="pres">
+      <dgm:prSet presAssocID="{D32B3839-4EA0-423D-B6A8-D4FEDB53835F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E22DA3CD-DEDD-4107-AD84-E70B6D7AC799}" type="pres">
+      <dgm:prSet presAssocID="{FE5D050E-6456-48B2-B2DE-350722D782B2}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2C35317C-58F2-4595-A7CE-8F5AEBE09A8E}" type="pres">
+      <dgm:prSet presAssocID="{FE5D050E-6456-48B2-B2DE-350722D782B2}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{47895908-4725-45FB-8E81-4B1F501B3FE6}" type="pres">
+      <dgm:prSet presAssocID="{FE5D050E-6456-48B2-B2DE-350722D782B2}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{75BB7693-DD9A-4750-B13F-E51203B1C1C3}" type="pres">
+      <dgm:prSet presAssocID="{FE5D050E-6456-48B2-B2DE-350722D782B2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A7969FC7-C42F-401C-AAD1-364F98A6DC11}" type="pres">
+      <dgm:prSet presAssocID="{FE5D050E-6456-48B2-B2DE-350722D782B2}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E02F051E-350F-4DB3-9937-EE30961828F3}" type="pres">
+      <dgm:prSet presAssocID="{FE5D050E-6456-48B2-B2DE-350722D782B2}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{599EE780-B39D-470B-84D7-99317D87AD1A}" type="pres">
+      <dgm:prSet presAssocID="{E7A97419-D9B6-4CF6-8526-23C729839883}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5CF8E09E-FAC9-44EC-BF71-7FB323EAEAB9}" type="pres">
+      <dgm:prSet presAssocID="{79BF427E-1122-43C4-9694-7D36E694B08D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{37AF3D02-E7B4-46A9-9709-71749CC16A66}" type="pres">
+      <dgm:prSet presAssocID="{79BF427E-1122-43C4-9694-7D36E694B08D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{769E2304-F59D-4A05-9112-8189E7C3E40B}" type="pres">
+      <dgm:prSet presAssocID="{79BF427E-1122-43C4-9694-7D36E694B08D}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{10A91F94-28C9-416A-9FB8-C3C51193B4B1}" type="pres">
+      <dgm:prSet presAssocID="{79BF427E-1122-43C4-9694-7D36E694B08D}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EFDC06D3-920F-4CA8-B250-1FFF44A46527}" type="pres">
+      <dgm:prSet presAssocID="{79BF427E-1122-43C4-9694-7D36E694B08D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B157C9C1-3FC7-4CED-BA76-49D57D8AD253}" type="pres">
+      <dgm:prSet presAssocID="{79BF427E-1122-43C4-9694-7D36E694B08D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F6248B41-3D21-4B34-8E14-D940D4CD2E2C}" type="pres">
+      <dgm:prSet presAssocID="{55D709D2-7C07-42BE-865B-5A10C4CD1DD3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{31C6F1E7-3206-4D86-ABFE-1D7109616DB2}" type="pres">
+      <dgm:prSet presAssocID="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{34F36A58-AD88-4990-B800-0E0F5C32469D}" type="pres">
+      <dgm:prSet presAssocID="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{10637A0B-F521-41A7-AFE9-854DD63F2B65}" type="pres">
+      <dgm:prSet presAssocID="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{18C388CD-0C92-4287-9190-E993638B3DC9}" type="pres">
+      <dgm:prSet presAssocID="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB37AFA6-C00E-48A9-9DF2-6FFCEDF7F2C7}" type="pres">
+      <dgm:prSet presAssocID="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3FD3176-7B31-4008-ADA7-4DA98DA806CC}" type="pres">
+      <dgm:prSet presAssocID="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CC07F6AD-0067-4B0C-92D8-746AC3CF7763}" type="pres">
+      <dgm:prSet presAssocID="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E4D527E5-7DCD-4AC4-BCEC-61969D480ABB}" type="pres">
+      <dgm:prSet presAssocID="{79196D40-E45D-45E2-98D4-973DE21D6386}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{847C5C7C-EEC8-4ED4-8D5A-748752305967}" type="pres">
+      <dgm:prSet presAssocID="{3B311C78-3BCA-4417-A72D-996887CD6876}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF93F38B-BCCA-4856-B372-933B6B0D1C98}" type="pres">
+      <dgm:prSet presAssocID="{3B311C78-3BCA-4417-A72D-996887CD6876}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5D93FA95-B3B7-413F-BA10-87BB48BAA5EF}" type="pres">
+      <dgm:prSet presAssocID="{3B311C78-3BCA-4417-A72D-996887CD6876}" presName="rootText" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AB8F47AA-86FF-4082-9DFF-80A8D7FF529A}" type="pres">
+      <dgm:prSet presAssocID="{3B311C78-3BCA-4417-A72D-996887CD6876}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5DDDFED7-6E25-4F22-85C4-D6D2CE41BCAC}" type="pres">
+      <dgm:prSet presAssocID="{3B311C78-3BCA-4417-A72D-996887CD6876}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{077321E9-DBF1-4F58-BCA0-DC9C478CAB37}" type="pres">
+      <dgm:prSet presAssocID="{10AD7FB1-5673-4790-9F2B-9A89749604B9}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A029EF00-F68E-4C99-A9CB-5B74133B8015}" type="pres">
+      <dgm:prSet presAssocID="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A1695097-8375-4A1F-A85F-811B3883CE29}" type="pres">
+      <dgm:prSet presAssocID="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3698DB97-9786-452D-94B3-097923008C50}" type="pres">
+      <dgm:prSet presAssocID="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8E70F6B7-A0E4-4B0F-B869-2ABD9D95DAE4}" type="pres">
+      <dgm:prSet presAssocID="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="7"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{896A6DF0-2A9F-4862-AEAD-221E6C1A1CB4}" type="pres">
+      <dgm:prSet presAssocID="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D36DE821-2DF8-4845-A81D-81F37E936524}" type="pres">
+      <dgm:prSet presAssocID="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB4A5B27-1310-4A07-A93D-0B7FB0118FE5}" type="pres">
+      <dgm:prSet presAssocID="{3B311C78-3BCA-4417-A72D-996887CD6876}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2098D6ED-3D3D-427C-92AC-4F4588A22B21}" type="pres">
+      <dgm:prSet presAssocID="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{2D18A403-4A53-444A-BF0A-BC0A1A69578E}" type="presOf" srcId="{15661C8F-A942-46D3-8945-0E203EBAEC45}" destId="{0C1E03DA-085F-44B6-B71F-BFCA71CF12CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D71B820B-D93F-4554-A8E0-46E6EB9DFDB3}" type="presOf" srcId="{FE5D050E-6456-48B2-B2DE-350722D782B2}" destId="{47895908-4725-45FB-8E81-4B1F501B3FE6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B70BF0B-3716-4D3A-901B-150C38192039}" type="presOf" srcId="{4FD2F069-D1F9-4C76-A595-2B0BC88052FB}" destId="{77EF6835-9C69-48BB-A1BB-C3E8E460BD33}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1CA4E70C-47BB-48F0-A33F-240D84FEB449}" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{3B311C78-3BCA-4417-A72D-996887CD6876}" srcOrd="5" destOrd="0" parTransId="{79196D40-E45D-45E2-98D4-973DE21D6386}" sibTransId="{2FCF418B-901C-482B-A692-FCD82BF7B785}"/>
+    <dgm:cxn modelId="{B587DA10-804B-4AB2-BF2A-58D4EB9BEC81}" type="presOf" srcId="{3B311C78-3BCA-4417-A72D-996887CD6876}" destId="{5D93FA95-B3B7-413F-BA10-87BB48BAA5EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82108B1B-44B6-4C9D-9D62-0EC628857CF9}" type="presOf" srcId="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" destId="{6247E144-BD3F-4891-BB9B-843A9AF07F99}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0759701D-53F9-47DD-B231-4E252F320A11}" srcId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" destId="{15661C8F-A942-46D3-8945-0E203EBAEC45}" srcOrd="0" destOrd="0" parTransId="{87591C9D-18B7-4CD6-9F72-9DBBC9F0E4F4}" sibTransId="{3917C27F-79DA-460D-95CE-3201A35A1754}"/>
+    <dgm:cxn modelId="{0F9BFF1D-0237-4519-B474-6ADDDF903A33}" type="presOf" srcId="{79196D40-E45D-45E2-98D4-973DE21D6386}" destId="{E4D527E5-7DCD-4AC4-BCEC-61969D480ABB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7C2B901E-080A-4B4D-93D0-E0A6B38CA301}" srcId="{D3B457E7-44FE-4643-8219-505036533927}" destId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" srcOrd="0" destOrd="0" parTransId="{BAC1602F-5B14-40D3-BE27-29681A38E0E9}" sibTransId="{5AE0105A-06FB-46A9-8ADE-12F16BC5D307}"/>
+    <dgm:cxn modelId="{BD2FE725-C76E-4727-A5AD-EFB3D325A8D6}" type="presOf" srcId="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" destId="{D375DF16-C7F5-4306-AD80-6F091FE35EFB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{404B7B26-D8E3-4B55-A549-61D64F210350}" type="presOf" srcId="{10AD7FB1-5673-4790-9F2B-9A89749604B9}" destId="{077321E9-DBF1-4F58-BCA0-DC9C478CAB37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{694AC427-EA6C-4C2A-8890-2385C0B573B1}" type="presOf" srcId="{15661C8F-A942-46D3-8945-0E203EBAEC45}" destId="{5789A0CC-91D6-40FC-A70B-E030D43B9186}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2DCE0F2C-F4CA-429A-9368-A0BFAD3EDC41}" type="presOf" srcId="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" destId="{8F555515-392E-4630-AD45-7855EC487D60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{214B7A2C-A656-434C-B12B-4443C5A2FA07}" type="presOf" srcId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" destId="{F2157CF2-7B59-47BE-854F-E53CC478B9F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E77E62E-1CEA-4634-96C4-3F4EA2DFB62A}" type="presOf" srcId="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" destId="{6A771FCC-D9EB-4439-85AD-383C7098FC22}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F79F7F30-52A3-4E3F-8537-47FA7506D462}" type="presOf" srcId="{BD2FA59E-C65A-4FAB-89F6-8820F566172C}" destId="{3E327282-0478-4CF9-B25B-8F7933DEBDD1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{31C22C32-EF29-4A38-8C4C-67129D92AB9D}" type="presOf" srcId="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" destId="{CF1B73C5-7E0D-4A7C-88B9-05B31FDF8394}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{302D7136-BDD1-4605-AFB6-480E3D5A066D}" srcId="{3B311C78-3BCA-4417-A72D-996887CD6876}" destId="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" srcOrd="0" destOrd="0" parTransId="{10AD7FB1-5673-4790-9F2B-9A89749604B9}" sibTransId="{520F9043-4272-4277-BFEE-63F3DA41B3DF}"/>
+    <dgm:cxn modelId="{CE22A736-798B-414A-9E76-F95B91AE48D6}" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" srcOrd="0" destOrd="0" parTransId="{4FD2F069-D1F9-4C76-A595-2B0BC88052FB}" sibTransId="{FB0089AE-BC9C-4F61-8440-DE545FD9517A}"/>
+    <dgm:cxn modelId="{F460D136-95E4-496B-80D3-67A254FF9381}" type="presOf" srcId="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" destId="{435A6278-380D-4F4B-B253-AE6D2EE5BEE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{080C1639-CE93-4853-BBBA-1CEE6EEFEB92}" type="presOf" srcId="{130472F5-B87E-403A-A7E2-305D94543FAF}" destId="{0AF4B038-E147-42CC-A417-D40ABA702CE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC6E1A40-A1F3-4826-BBC0-B4274463B547}" type="presOf" srcId="{D32B3839-4EA0-423D-B6A8-D4FEDB53835F}" destId="{245F04D5-8494-41C8-8678-30B5F2EBD06D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{517C5562-8CE0-48C9-9E6B-97CBDE326CAF}" type="presOf" srcId="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" destId="{97B51F5B-E36A-475B-9B89-AEB65BFE4751}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{740F9D62-6213-4ADA-A081-AABB6163D941}" type="presOf" srcId="{79BF427E-1122-43C4-9694-7D36E694B08D}" destId="{10A91F94-28C9-416A-9FB8-C3C51193B4B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{72B51063-24BB-4074-8D8F-5DBFA3AE06B1}" srcId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" destId="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" srcOrd="2" destOrd="0" parTransId="{55D709D2-7C07-42BE-865B-5A10C4CD1DD3}" sibTransId="{6679C4C3-769C-445D-B1CC-34591F0099EA}"/>
+    <dgm:cxn modelId="{F2732044-E288-44F4-ABED-7DD3E79F9F36}" type="presOf" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{9D90140D-12A9-48EE-BE1E-CD59A7ADB807}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3C9D9847-D101-45D3-8B03-621A5065BE85}" type="presOf" srcId="{E7A97419-D9B6-4CF6-8526-23C729839883}" destId="{599EE780-B39D-470B-84D7-99317D87AD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A7312E48-FF12-40BC-9817-F055A11ED18F}" type="presOf" srcId="{D3B457E7-44FE-4643-8219-505036533927}" destId="{32A34F89-87B7-4A0A-AB48-87A3888A9120}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{079C6868-A2FE-428B-81D4-36D0D213EF5F}" type="presOf" srcId="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" destId="{3C832F61-715A-48E1-A638-560FC90AD7F5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF946C6A-F5EB-4AC5-9144-FD6F59A0BCB3}" type="presOf" srcId="{3B311C78-3BCA-4417-A72D-996887CD6876}" destId="{AB8F47AA-86FF-4082-9DFF-80A8D7FF529A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A05FB74A-EEDC-4779-921A-4F14699CE5C7}" type="presOf" srcId="{FF6D66D5-C811-44C6-A377-6B81071937AC}" destId="{C5F06955-6995-48FB-9DFD-CC1941007D0E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9117F86D-4F54-4689-B16B-C7CB203EEEE5}" type="presOf" srcId="{DD89DDF5-DDD9-4773-9C28-8FDD53C4BBCF}" destId="{A24AB40C-088C-448E-AFE9-6C05E68DB465}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C0B726E-86C7-4592-B9C5-07E48891FC8D}" type="presOf" srcId="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" destId="{A39ADBBD-C982-4020-B3E1-8D9896A81BC1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CCFD3871-39B9-4E76-BB04-BF882DC07E25}" type="presOf" srcId="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" destId="{2C4A0373-2C54-4774-BDEE-713F7B059F13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD951F54-FAA5-4203-AD8C-4099FE9EEA43}" type="presOf" srcId="{FE5D050E-6456-48B2-B2DE-350722D782B2}" destId="{75BB7693-DD9A-4750-B13F-E51203B1C1C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA7F0976-9246-45AF-9C61-E560784EFFD2}" srcId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" destId="{79BF427E-1122-43C4-9694-7D36E694B08D}" srcOrd="1" destOrd="0" parTransId="{E7A97419-D9B6-4CF6-8526-23C729839883}" sibTransId="{BB3A6022-45C1-4C35-B3F1-0029AB3B7BCD}"/>
+    <dgm:cxn modelId="{AF48957C-6DA1-46BA-8071-2ABD799701C1}" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{D87968CB-437F-4D72-8168-8BDA123155AA}" srcOrd="1" destOrd="0" parTransId="{130472F5-B87E-403A-A7E2-305D94543FAF}" sibTransId="{B8015DA3-A4F5-40C1-8A06-F599524B9B69}"/>
+    <dgm:cxn modelId="{89FED27E-90C7-4191-9FDE-06882F534DAC}" type="presOf" srcId="{87591C9D-18B7-4CD6-9F72-9DBBC9F0E4F4}" destId="{39016D2F-521F-4096-A05F-8FEE5FDD6CE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B5921685-3474-41C4-89B2-85652FB9030E}" type="presOf" srcId="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" destId="{9C024EB4-4216-47D4-B7AE-82314E1F1FD5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{08EFDD85-133F-484B-BA31-1F7430108D26}" type="presOf" srcId="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" destId="{18C388CD-0C92-4287-9190-E993638B3DC9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{00181889-3E50-4B03-A9BF-AB5C1C512E2E}" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{F214D91A-39DB-4B5A-9167-16725B036C28}" srcOrd="2" destOrd="0" parTransId="{3562DCD6-DC0D-4446-A0B6-36472746B3D3}" sibTransId="{E599B5E3-E106-4F39-A5A3-A72C71E9F9AC}"/>
+    <dgm:cxn modelId="{ED882289-944B-48A1-99F5-7BC5B0360CE9}" type="presOf" srcId="{D35EF94B-5B99-484C-BA41-719DBD74ED1D}" destId="{03BB564C-4DF1-4E05-A0CC-26CEEB7F72C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1B9C2190-E358-4BCD-837E-487240964AB5}" type="presOf" srcId="{4A14C6E3-EE27-4070-A214-FDA6CB281E43}" destId="{A0165A9E-7D49-4BBB-B647-FDDADD06AD2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B843BB90-85FE-4AE0-8873-BAA8E7BE770A}" type="presOf" srcId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" destId="{CD7732E3-20FF-46AD-90D9-501FAEB87E5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A59C4E94-92A2-4F81-AAA4-EDDAA60CD587}" srcId="{5BE0843B-D4BA-4D51-9B98-1551DDE949D3}" destId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" srcOrd="0" destOrd="0" parTransId="{BD2FA59E-C65A-4FAB-89F6-8820F566172C}" sibTransId="{8DA2532F-4D18-48E3-9C9C-7E58A9546554}"/>
+    <dgm:cxn modelId="{9D78CD9A-DC8C-4191-AF4B-1196B322FC72}" type="presOf" srcId="{79BF427E-1122-43C4-9694-7D36E694B08D}" destId="{769E2304-F59D-4A05-9112-8189E7C3E40B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A5A5A9C-5974-43E2-8881-3EF2F55B24E0}" type="presOf" srcId="{D87968CB-437F-4D72-8168-8BDA123155AA}" destId="{A2360443-FCC2-4AA0-ADF3-23A777FE5E9C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{975016A3-D028-4103-8FBC-3196CC8B98C8}" srcId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" destId="{FC87E013-FE5B-47CC-AD43-D35D3EE6EB04}" srcOrd="2" destOrd="0" parTransId="{B01C506C-9ECC-41E3-BBCF-03B5A86ACE18}" sibTransId="{A7DFAE67-38F3-4DE6-A228-C3CBE375792A}"/>
+    <dgm:cxn modelId="{B80602A7-25CF-4C40-B7D7-C277DE663BDF}" srcId="{D87968CB-437F-4D72-8168-8BDA123155AA}" destId="{EC34B237-49A1-4DBD-B0AF-0243C0158418}" srcOrd="0" destOrd="0" parTransId="{DD89DDF5-DDD9-4773-9C28-8FDD53C4BBCF}" sibTransId="{F3BFD1CC-ECFE-4B39-8FF6-BB848FB210C9}"/>
+    <dgm:cxn modelId="{E9CF34A8-D35C-4429-AF8F-598FF0CF5240}" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" srcOrd="3" destOrd="0" parTransId="{D35EF94B-5B99-484C-BA41-719DBD74ED1D}" sibTransId="{356560DF-F547-4686-881E-D8E551641FD0}"/>
+    <dgm:cxn modelId="{CD7AD8AD-5628-4E23-8207-050846B19111}" type="presOf" srcId="{F214D91A-39DB-4B5A-9167-16725B036C28}" destId="{A3566A9F-493F-485D-889D-ED6485EC6C7E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7E02A9AE-F7D9-41D4-8559-A8BAD9969CF3}" type="presOf" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{D28C14FB-B854-484A-9C5D-2274BA988DC5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{61389BBA-84AD-4B32-8715-8B5F46406A53}" type="presOf" srcId="{9CA08359-9BA4-465A-B016-A31CFBB38677}" destId="{27E339FD-0A41-405B-A965-1930DA30B400}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E38CEFBC-CF26-406A-9256-B8319DAF2792}" type="presOf" srcId="{B01C506C-9ECC-41E3-BBCF-03B5A86ACE18}" destId="{D478D909-F0B2-4509-8309-ABFCFDEDD80A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{66CA9EC0-5428-48A4-ABF3-174650FF536B}" type="presOf" srcId="{347CA47C-13B2-453C-9615-0B7A0D06D21D}" destId="{1521F57A-92BB-4AD3-B870-2787061D8AF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7734F2C4-B937-48F4-A201-6BB42B094527}" type="presOf" srcId="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" destId="{3698DB97-9786-452D-94B3-097923008C50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B8D05C7-CE14-4869-98F6-E56A84470421}" srcId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" destId="{FE5D050E-6456-48B2-B2DE-350722D782B2}" srcOrd="0" destOrd="0" parTransId="{D32B3839-4EA0-423D-B6A8-D4FEDB53835F}" sibTransId="{0657D978-78F1-4EF8-B9D1-D17CC28CB53E}"/>
+    <dgm:cxn modelId="{A600BBC9-C584-49DE-8F99-BF92F5625044}" type="presOf" srcId="{01BE0608-B6B8-446F-9D8D-BB21132A1662}" destId="{7FA49DC4-A94D-4A09-8B7E-482F66DEF5FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4BFFDBCC-3601-4E82-937C-1B9EAAFA8655}" srcId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" destId="{2BB50FA6-D6A1-45AA-9662-F65C422CE980}" srcOrd="1" destOrd="0" parTransId="{347CA47C-13B2-453C-9615-0B7A0D06D21D}" sibTransId="{52D2E8B3-F327-4285-BC38-B7919855B90E}"/>
+    <dgm:cxn modelId="{4D780CCF-B361-44D4-ACC0-7A8BE99DB3CA}" srcId="{677AF113-DD14-438D-BBC3-A8C4F33A4F47}" destId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" srcOrd="4" destOrd="0" parTransId="{4A14C6E3-EE27-4070-A214-FDA6CB281E43}" sibTransId="{357E8881-980E-44CF-AF61-EA01B9F30C5F}"/>
+    <dgm:cxn modelId="{41D45FD7-BA04-45FD-B7E3-38167BDE8A3E}" type="presOf" srcId="{F214D91A-39DB-4B5A-9167-16725B036C28}" destId="{93CEC41D-3533-4094-8E96-A9FF1ECC00A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{507CDFD7-1EAB-460B-BBB0-73D22D9955DC}" type="presOf" srcId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" destId="{2884EF3E-2FFA-4108-B510-9A790768AE8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{73296FDF-36C5-4535-87E1-0C6B489F964D}" type="presOf" srcId="{55D709D2-7C07-42BE-865B-5A10C4CD1DD3}" destId="{F6248B41-3D21-4B34-8E14-D940D4CD2E2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1E895BE7-BFDB-4BDE-A421-D73EA4CF41AF}" type="presOf" srcId="{308E6E0D-31D1-4AC2-9DDB-459B19E98D54}" destId="{10637A0B-F521-41A7-AFE9-854DD63F2B65}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{310E29EB-D700-4524-A957-E0A3A85E359B}" type="presOf" srcId="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" destId="{1553333B-4009-44AA-A04C-9AC60B344723}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C0FDE4ED-8098-4552-A9DE-01B9A18613B7}" srcId="{9BEC0566-C1EA-4FA2-A8F4-2B180068F4AB}" destId="{FF6D66D5-C811-44C6-A377-6B81071937AC}" srcOrd="0" destOrd="0" parTransId="{01BE0608-B6B8-446F-9D8D-BB21132A1662}" sibTransId="{FA2012FE-527C-4DB8-82A6-29153DD0FED1}"/>
+    <dgm:cxn modelId="{C2FF9AEF-1422-480C-AC50-82156293533B}" type="presOf" srcId="{D87968CB-437F-4D72-8168-8BDA123155AA}" destId="{3EA73C0B-2AA8-49C9-9F6D-A27B29186052}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7D5199F2-E1D3-4862-9DA2-3CD330F5712E}" type="presOf" srcId="{FF6D66D5-C811-44C6-A377-6B81071937AC}" destId="{D476C80C-6F2D-4AE4-BFAE-D98C199D347E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F9E5B1FB-6B75-4120-B21D-B73764324CD3}" type="presOf" srcId="{0BE13B4E-0E6D-4513-AD47-70B4FE648937}" destId="{AC1BA703-F4DF-4539-9CAD-231B632F155A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F87F4FB-323D-4761-8D9D-A87FDDCBAA0F}" type="presOf" srcId="{3562DCD6-DC0D-4446-A0B6-36472746B3D3}" destId="{7EFB4F87-E8DB-46E5-9F96-6FC1837C263D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{69DC8AFD-F0A1-4B44-8917-55700FFAD9CD}" type="presOf" srcId="{9396F8C2-C4FF-480F-B821-F120E4B0F6A5}" destId="{8E70F6B7-A0E4-4B0F-B869-2ABD9D95DAE4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{675D51FF-AF82-4930-AD9C-4EF5CF03D7AB}" srcId="{033D8A76-131E-49C0-94A6-6F7F09B1FD08}" destId="{32353318-C7C7-47F7-B8CA-F5CDC2AB97BB}" srcOrd="3" destOrd="0" parTransId="{9CA08359-9BA4-465A-B016-A31CFBB38677}" sibTransId="{F2D4CA09-30D6-447E-97EF-E56A22BE3CCD}"/>
+    <dgm:cxn modelId="{78EC0A28-7266-471D-8B07-1E56D21B128D}" type="presParOf" srcId="{32A34F89-87B7-4A0A-AB48-87A3888A9120}" destId="{B3049636-F373-4EDA-87C5-ACDD2CF1BB54}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB62BEB3-CF69-482D-8673-7659E83FCA6C}" type="presParOf" srcId="{B3049636-F373-4EDA-87C5-ACDD2CF1BB54}" destId="{A4ED367E-A4F9-4000-A527-D403535B9799}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7827C628-1D54-493C-BB66-0C107EDFA8BA}" type="presParOf" srcId="{A4ED367E-A4F9-4000-A527-D403535B9799}" destId="{9D90140D-12A9-48EE-BE1E-CD59A7ADB807}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88B2BC19-C28C-43A3-9DDB-B8E94CCBCEB1}" type="presParOf" srcId="{A4ED367E-A4F9-4000-A527-D403535B9799}" destId="{D28C14FB-B854-484A-9C5D-2274BA988DC5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7A439772-C6BD-4909-9214-9D7B71F28D93}" type="presParOf" srcId="{B3049636-F373-4EDA-87C5-ACDD2CF1BB54}" destId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C45B409B-BE42-430B-BA7C-83D5EFA16569}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{77EF6835-9C69-48BB-A1BB-C3E8E460BD33}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62709987-F82F-4AB4-8258-7730D4590698}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{A355250B-BABC-4211-9886-8E5033596501}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3D5B57B3-B3CD-4F6E-AC82-F0C6073605E6}" type="presParOf" srcId="{A355250B-BABC-4211-9886-8E5033596501}" destId="{9BBBB98C-9268-42F2-9383-92DFCFFF9FA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3010F157-D4F5-43E4-B3B3-9C8861A23935}" type="presParOf" srcId="{9BBBB98C-9268-42F2-9383-92DFCFFF9FA1}" destId="{435A6278-380D-4F4B-B253-AE6D2EE5BEE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{405DF410-A5A6-426C-A59F-2030B80D6B99}" type="presParOf" srcId="{9BBBB98C-9268-42F2-9383-92DFCFFF9FA1}" destId="{CF1B73C5-7E0D-4A7C-88B9-05B31FDF8394}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3AA08AAC-09B1-41D2-883E-247F185512B9}" type="presParOf" srcId="{A355250B-BABC-4211-9886-8E5033596501}" destId="{172F1231-0C6F-47A3-A6F4-45ADA6A31F27}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4C8280BA-0F7A-4D42-9347-FF78297B82B8}" type="presParOf" srcId="{172F1231-0C6F-47A3-A6F4-45ADA6A31F27}" destId="{3E327282-0478-4CF9-B25B-8F7933DEBDD1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D86F823B-9B0F-430B-8F49-CBE09E15D193}" type="presParOf" srcId="{172F1231-0C6F-47A3-A6F4-45ADA6A31F27}" destId="{0C28CA4D-B74D-4ED7-8F74-4BA02B38A39C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{13C6053E-65E3-40EF-A63E-E3266F9B3D4B}" type="presParOf" srcId="{0C28CA4D-B74D-4ED7-8F74-4BA02B38A39C}" destId="{1B12899F-879C-4C70-B9A7-E6CBEDEC6E40}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9FC4CD35-618F-4777-98BB-AEEB55A7A92A}" type="presParOf" srcId="{1B12899F-879C-4C70-B9A7-E6CBEDEC6E40}" destId="{CD7732E3-20FF-46AD-90D9-501FAEB87E5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{950589C3-E07F-403A-87BA-95CB59A62F74}" type="presParOf" srcId="{1B12899F-879C-4C70-B9A7-E6CBEDEC6E40}" destId="{2884EF3E-2FFA-4108-B510-9A790768AE8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E37C3A05-47BC-4C3B-ADC9-DA71E65719D0}" type="presParOf" srcId="{0C28CA4D-B74D-4ED7-8F74-4BA02B38A39C}" destId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37531DA5-8E5F-457D-A110-0699407669EC}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{39016D2F-521F-4096-A05F-8FEE5FDD6CE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{956BD87B-CA79-431A-9562-D09504CCDF09}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{B93F70CC-9C44-4F34-A643-0EEE40FF79DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2379C222-98BA-42B8-80D6-F4E3E6D1ECC5}" type="presParOf" srcId="{B93F70CC-9C44-4F34-A643-0EEE40FF79DF}" destId="{177F88AA-DF8B-4E63-B8E7-BC292C470E9A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7CF6D10-AC32-4EE5-95C5-BFDDC2C272F4}" type="presParOf" srcId="{177F88AA-DF8B-4E63-B8E7-BC292C470E9A}" destId="{5789A0CC-91D6-40FC-A70B-E030D43B9186}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{254686CF-7BE2-4E04-88EF-99E7FD365E2B}" type="presParOf" srcId="{177F88AA-DF8B-4E63-B8E7-BC292C470E9A}" destId="{0C1E03DA-085F-44B6-B71F-BFCA71CF12CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C9C7D153-00CD-4F8A-9E60-DF11798C1961}" type="presParOf" srcId="{B93F70CC-9C44-4F34-A643-0EEE40FF79DF}" destId="{CE635AB2-5D69-42E6-A2E4-D3426E822AB0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{48D0C46C-8057-4A21-8280-69DD890FD8E9}" type="presParOf" srcId="{B93F70CC-9C44-4F34-A643-0EEE40FF79DF}" destId="{511B20B1-5A9D-45CA-AF7D-370ED39EC526}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{379BFAD5-C8E5-4327-BA46-15AC11496253}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{1521F57A-92BB-4AD3-B870-2787061D8AF2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62585541-26E6-43BB-B26C-EE711B0B5959}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{D926D3EB-30AC-4897-B737-CFEA1756CED3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7E406E58-D4EF-4DDA-8CD6-765492E2AFDF}" type="presParOf" srcId="{D926D3EB-30AC-4897-B737-CFEA1756CED3}" destId="{A3EA17D2-1A77-48D1-9E31-5813979813E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0695ECD1-C7C4-423C-9EAC-072D2A23E36A}" type="presParOf" srcId="{A3EA17D2-1A77-48D1-9E31-5813979813E9}" destId="{9C024EB4-4216-47D4-B7AE-82314E1F1FD5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1A60BEFA-F696-4462-8DD7-213C7F82A317}" type="presParOf" srcId="{A3EA17D2-1A77-48D1-9E31-5813979813E9}" destId="{6A771FCC-D9EB-4439-85AD-383C7098FC22}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F5F19C4A-6EC8-4D57-B025-45C3E8F15583}" type="presParOf" srcId="{D926D3EB-30AC-4897-B737-CFEA1756CED3}" destId="{575EA6BC-A7E4-4955-BE45-8C97F2890381}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F8396697-B158-43EB-9D77-1B0B5DA19906}" type="presParOf" srcId="{D926D3EB-30AC-4897-B737-CFEA1756CED3}" destId="{E26A561C-A33B-42BD-A901-09A33DEE6CC5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{58CA8098-4B09-4945-A15A-E3300738F9F4}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{D478D909-F0B2-4509-8309-ABFCFDEDD80A}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F862ACB3-D6AD-4F7E-8B5C-B3384671207D}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{6BFC1C13-BF2E-49BD-98DD-F367A53EF3C5}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8F57D6FC-4BD9-4B2F-8876-4A8B95C9101D}" type="presParOf" srcId="{6BFC1C13-BF2E-49BD-98DD-F367A53EF3C5}" destId="{08CABDF4-5DA7-434B-907B-EAADBAA125BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{13B71EEB-A3DC-4B9A-884A-A597E7133C52}" type="presParOf" srcId="{08CABDF4-5DA7-434B-907B-EAADBAA125BA}" destId="{8F555515-392E-4630-AD45-7855EC487D60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B8B7704B-B147-4D37-A4EC-8EAA77082FE1}" type="presParOf" srcId="{08CABDF4-5DA7-434B-907B-EAADBAA125BA}" destId="{6247E144-BD3F-4891-BB9B-843A9AF07F99}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5EA60C89-5255-4FDE-AFA0-B6EACB362A70}" type="presParOf" srcId="{6BFC1C13-BF2E-49BD-98DD-F367A53EF3C5}" destId="{904FE2E1-68E6-4B0E-94A5-617664985448}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4AD9501E-4F99-4AAD-AC36-398CDD70710D}" type="presParOf" srcId="{6BFC1C13-BF2E-49BD-98DD-F367A53EF3C5}" destId="{BCBCC08B-229B-46B8-B054-7213D15F4B11}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{56A525C8-DCF5-4E1D-92EB-602A6EA05F16}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{27E339FD-0A41-405B-A965-1930DA30B400}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD2F9292-34C9-4E1F-B79A-205819CAFD52}" type="presParOf" srcId="{FB2BF92F-6718-4E13-B87D-775CB4CA2D4B}" destId="{F1E06992-A70D-40EF-B010-289386625F37}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B9ECF511-3C14-484A-AF43-28C19CCA72A5}" type="presParOf" srcId="{F1E06992-A70D-40EF-B010-289386625F37}" destId="{032A3170-6D2D-4224-BBC8-AC538AD90458}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CBF1521E-8B2B-4829-9BA8-570DF5BC1535}" type="presParOf" srcId="{032A3170-6D2D-4224-BBC8-AC538AD90458}" destId="{97B51F5B-E36A-475B-9B89-AEB65BFE4751}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{48CA8335-029D-4B9A-BFBB-17FF64F45659}" type="presParOf" srcId="{032A3170-6D2D-4224-BBC8-AC538AD90458}" destId="{3C832F61-715A-48E1-A638-560FC90AD7F5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C04DC87-B34B-408F-92B6-4D2B2469DFE1}" type="presParOf" srcId="{F1E06992-A70D-40EF-B010-289386625F37}" destId="{CE4F3849-B878-498A-8062-3A583E15C0FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4CBF2A8B-2777-4CBC-ADA1-DA48621CAB28}" type="presParOf" srcId="{F1E06992-A70D-40EF-B010-289386625F37}" destId="{3AF27A22-09C4-4DBC-995E-E2A80B5741C3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{09AB8989-8DB0-4624-86B4-DAE90CA27AE9}" type="presParOf" srcId="{0C28CA4D-B74D-4ED7-8F74-4BA02B38A39C}" destId="{8E32D240-EA77-4C13-A9C7-0D786504A02A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8E81C0D0-C609-441A-A72D-FC07472FCF27}" type="presParOf" srcId="{A355250B-BABC-4211-9886-8E5033596501}" destId="{900C807C-A237-425A-B04D-D3DFAD484A83}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E6577828-0EEE-467B-898E-17956C4D4CC8}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{0AF4B038-E147-42CC-A417-D40ABA702CE2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A31BBFBF-61AF-4FAF-BB43-3D2E5E90B7B2}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{05AC1B33-E19F-4F22-B742-27B5ABD1FC8F}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC7407AF-280E-4812-A1DC-53761F5FFDA3}" type="presParOf" srcId="{05AC1B33-E19F-4F22-B742-27B5ABD1FC8F}" destId="{8250E194-D839-43B8-80BA-A2DFEC51EE83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8F6FF90F-DC4A-47E4-B349-8B8EA246DAA0}" type="presParOf" srcId="{8250E194-D839-43B8-80BA-A2DFEC51EE83}" destId="{3EA73C0B-2AA8-49C9-9F6D-A27B29186052}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD30E748-841F-4D71-9A30-0AFCDFBFDC34}" type="presParOf" srcId="{8250E194-D839-43B8-80BA-A2DFEC51EE83}" destId="{A2360443-FCC2-4AA0-ADF3-23A777FE5E9C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C1E76811-F5B8-4F9E-9F80-F8CB666197BD}" type="presParOf" srcId="{05AC1B33-E19F-4F22-B742-27B5ABD1FC8F}" destId="{120FBA30-B698-47E8-90D9-DCCAC8407040}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1ACFB361-79CD-4D9E-8CD4-B3FB9BC9BEC6}" type="presParOf" srcId="{120FBA30-B698-47E8-90D9-DCCAC8407040}" destId="{A24AB40C-088C-448E-AFE9-6C05E68DB465}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E33BEE1-B90D-459F-A1D0-630D6DF09D7F}" type="presParOf" srcId="{120FBA30-B698-47E8-90D9-DCCAC8407040}" destId="{B0C2AD77-9C9B-4618-B32E-C171D5E0584D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{845DE2A1-01E0-4F65-8823-EA50FD000F62}" type="presParOf" srcId="{B0C2AD77-9C9B-4618-B32E-C171D5E0584D}" destId="{2289E3FB-1A7D-4465-B149-79DB85BE7ACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78843EEC-DC2D-47EF-B07E-04F4B3C58172}" type="presParOf" srcId="{2289E3FB-1A7D-4465-B149-79DB85BE7ACB}" destId="{A39ADBBD-C982-4020-B3E1-8D9896A81BC1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BED94375-6720-4CE6-A347-5679EFDA2F5B}" type="presParOf" srcId="{2289E3FB-1A7D-4465-B149-79DB85BE7ACB}" destId="{D375DF16-C7F5-4306-AD80-6F091FE35EFB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CAA65E95-AA86-4AA0-8E6C-AED0C27F9D39}" type="presParOf" srcId="{B0C2AD77-9C9B-4618-B32E-C171D5E0584D}" destId="{A4C5BEDE-7FAC-407B-8F5E-1A8AF440A4C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{182C4CEA-0370-418A-837F-DA28CAE1111F}" type="presParOf" srcId="{B0C2AD77-9C9B-4618-B32E-C171D5E0584D}" destId="{C3D11D0B-AC0F-40FE-AAAC-52FDD8C5E346}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4FD89977-C6C1-455C-B206-B2A0EF080F57}" type="presParOf" srcId="{05AC1B33-E19F-4F22-B742-27B5ABD1FC8F}" destId="{8030FAF3-8B3C-4567-BE5A-075CD01E5B82}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{65F78C02-2938-4DDF-BFD2-8AB02EF833BB}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{7EFB4F87-E8DB-46E5-9F96-6FC1837C263D}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B0F728F-8892-430B-8CDE-1144E303561E}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{ABEF65B2-7567-4978-9F2A-E931D48552C2}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{04A32256-33AF-4D35-8D08-FDDB156710D9}" type="presParOf" srcId="{ABEF65B2-7567-4978-9F2A-E931D48552C2}" destId="{2E668245-2DB8-49EE-8364-4C2EE4F93E8A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C2154DCC-B655-487B-920D-FE8EE21B7C0C}" type="presParOf" srcId="{2E668245-2DB8-49EE-8364-4C2EE4F93E8A}" destId="{93CEC41D-3533-4094-8E96-A9FF1ECC00A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8F701B79-2EB0-4FB7-827F-EBABE95416DD}" type="presParOf" srcId="{2E668245-2DB8-49EE-8364-4C2EE4F93E8A}" destId="{A3566A9F-493F-485D-889D-ED6485EC6C7E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6417C0DD-E1A5-4945-953D-6EE782D99D22}" type="presParOf" srcId="{ABEF65B2-7567-4978-9F2A-E931D48552C2}" destId="{A2DB10E1-B767-4D38-A886-B33DD11DC113}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7E1B5A4A-FB90-47EB-A058-00F213CC26ED}" type="presParOf" srcId="{ABEF65B2-7567-4978-9F2A-E931D48552C2}" destId="{9652F178-17AB-441E-8780-D2228A9E5322}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{053D6E0E-FCD2-43A7-8E44-807DCF258A60}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{03BB564C-4DF1-4E05-A0CC-26CEEB7F72C3}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{732DE38B-96D3-4EEB-90B0-766F14D1DCCD}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{EE2F8E39-C529-43F8-BC39-B0BB677E320C}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BA191CB9-563B-4148-9859-BE3747F615C8}" type="presParOf" srcId="{EE2F8E39-C529-43F8-BC39-B0BB677E320C}" destId="{6148B286-48F9-4A6B-8637-496A94816B22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14C6C785-EA97-4B5A-9B5F-1AA995D9FDEA}" type="presParOf" srcId="{6148B286-48F9-4A6B-8637-496A94816B22}" destId="{1553333B-4009-44AA-A04C-9AC60B344723}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7443B98-884D-4AFE-97F3-8B15CD740037}" type="presParOf" srcId="{6148B286-48F9-4A6B-8637-496A94816B22}" destId="{2C4A0373-2C54-4774-BDEE-713F7B059F13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9DBE07C4-17D1-4536-B913-EF1143CF39CD}" type="presParOf" srcId="{EE2F8E39-C529-43F8-BC39-B0BB677E320C}" destId="{5AD658D1-B3D6-4103-8C84-8D00FA7B5135}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1FAAA15B-C434-4084-A880-EAD7A8673A09}" type="presParOf" srcId="{5AD658D1-B3D6-4103-8C84-8D00FA7B5135}" destId="{7FA49DC4-A94D-4A09-8B7E-482F66DEF5FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{972DA4CD-7878-47BD-9285-D675B4F6C9AE}" type="presParOf" srcId="{5AD658D1-B3D6-4103-8C84-8D00FA7B5135}" destId="{137276D7-C884-4E40-830C-A45FB2BE23EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D0DE5AC7-5616-466D-A9F9-6C28B20D3D86}" type="presParOf" srcId="{137276D7-C884-4E40-830C-A45FB2BE23EC}" destId="{64BE6D8B-5902-4FE3-9B69-221AEF52D91A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA39E762-9044-43AC-90B0-05A887ED9366}" type="presParOf" srcId="{64BE6D8B-5902-4FE3-9B69-221AEF52D91A}" destId="{C5F06955-6995-48FB-9DFD-CC1941007D0E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{903696DC-7EA0-4C70-93C9-4A90192CEE37}" type="presParOf" srcId="{64BE6D8B-5902-4FE3-9B69-221AEF52D91A}" destId="{D476C80C-6F2D-4AE4-BFAE-D98C199D347E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A8A1826F-3DDE-4606-A529-60920D293522}" type="presParOf" srcId="{137276D7-C884-4E40-830C-A45FB2BE23EC}" destId="{57862AF1-4BAF-45B7-A97B-D316DD790793}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{420EB8A6-F397-4A27-9F91-66E3CD3A7DC2}" type="presParOf" srcId="{137276D7-C884-4E40-830C-A45FB2BE23EC}" destId="{C08824E1-CAA4-41AD-8FEA-C4470E2A2B13}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0D46C840-BCD6-4AC8-9CBA-37B19125E7C5}" type="presParOf" srcId="{EE2F8E39-C529-43F8-BC39-B0BB677E320C}" destId="{24DA9052-2E96-4F70-BACC-7BB7829C70A7}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9AF235CA-10C0-4BF8-8DBD-87E854A516EE}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{A0165A9E-7D49-4BBB-B647-FDDADD06AD2A}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AAF17A6A-44E5-49E1-AB1B-BD7C0D9B3F3F}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{DE192776-0347-4C5E-8966-3B041B72D6A1}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{48AA2CAA-BC96-4A20-8A1D-885929F3CF1C}" type="presParOf" srcId="{DE192776-0347-4C5E-8966-3B041B72D6A1}" destId="{114725CF-8DCC-4806-A493-53712B185F5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3C92643F-C564-440A-9EA0-CA714FF3A9D3}" type="presParOf" srcId="{114725CF-8DCC-4806-A493-53712B185F5C}" destId="{AC1BA703-F4DF-4539-9CAD-231B632F155A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A022BE59-5B37-470D-A1A9-05AB399180BB}" type="presParOf" srcId="{114725CF-8DCC-4806-A493-53712B185F5C}" destId="{F2157CF2-7B59-47BE-854F-E53CC478B9F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3E1E0EBD-2C99-4A07-B425-F2CFDF3F465B}" type="presParOf" srcId="{DE192776-0347-4C5E-8966-3B041B72D6A1}" destId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{034EE241-F1EB-44CD-88E4-B52CCEB0C144}" type="presParOf" srcId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" destId="{245F04D5-8494-41C8-8678-30B5F2EBD06D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3C9833A2-0A79-4466-A33A-FFE049D58B38}" type="presParOf" srcId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" destId="{E22DA3CD-DEDD-4107-AD84-E70B6D7AC799}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0A495330-7A4C-4424-83C8-61678F8F5144}" type="presParOf" srcId="{E22DA3CD-DEDD-4107-AD84-E70B6D7AC799}" destId="{2C35317C-58F2-4595-A7CE-8F5AEBE09A8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21F0D6BC-2DE6-4F41-BD70-029F2D3E15DC}" type="presParOf" srcId="{2C35317C-58F2-4595-A7CE-8F5AEBE09A8E}" destId="{47895908-4725-45FB-8E81-4B1F501B3FE6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D4CB6A48-FE4F-4C0E-A52C-ACE3D99810B5}" type="presParOf" srcId="{2C35317C-58F2-4595-A7CE-8F5AEBE09A8E}" destId="{75BB7693-DD9A-4750-B13F-E51203B1C1C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B23DBAD5-E942-428E-ACD9-F1EED93A5A9D}" type="presParOf" srcId="{E22DA3CD-DEDD-4107-AD84-E70B6D7AC799}" destId="{A7969FC7-C42F-401C-AAD1-364F98A6DC11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D34D9581-EB9A-4198-8B62-7D5C03FFB875}" type="presParOf" srcId="{E22DA3CD-DEDD-4107-AD84-E70B6D7AC799}" destId="{E02F051E-350F-4DB3-9937-EE30961828F3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B33BF9BB-EC9A-49A1-A8DB-A335B6B48691}" type="presParOf" srcId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" destId="{599EE780-B39D-470B-84D7-99317D87AD1A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44F8C36A-9AF9-4EC1-AAAB-B30039F9EE89}" type="presParOf" srcId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" destId="{5CF8E09E-FAC9-44EC-BF71-7FB323EAEAB9}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4ACC8E57-92F9-4D6F-B666-EA3E6148DFA8}" type="presParOf" srcId="{5CF8E09E-FAC9-44EC-BF71-7FB323EAEAB9}" destId="{37AF3D02-E7B4-46A9-9709-71749CC16A66}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{864A326C-F775-4826-B3DD-7135A3872093}" type="presParOf" srcId="{37AF3D02-E7B4-46A9-9709-71749CC16A66}" destId="{769E2304-F59D-4A05-9112-8189E7C3E40B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A524D393-C140-4363-A2CE-4C356AA2ABE5}" type="presParOf" srcId="{37AF3D02-E7B4-46A9-9709-71749CC16A66}" destId="{10A91F94-28C9-416A-9FB8-C3C51193B4B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A0101CCD-6405-4A57-903C-6CBFB6792C63}" type="presParOf" srcId="{5CF8E09E-FAC9-44EC-BF71-7FB323EAEAB9}" destId="{EFDC06D3-920F-4CA8-B250-1FFF44A46527}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93FC5925-6E2E-4EE3-A72E-C752E56E7E09}" type="presParOf" srcId="{5CF8E09E-FAC9-44EC-BF71-7FB323EAEAB9}" destId="{B157C9C1-3FC7-4CED-BA76-49D57D8AD253}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F8CA9343-F3AA-436F-9335-40E7055B1155}" type="presParOf" srcId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" destId="{F6248B41-3D21-4B34-8E14-D940D4CD2E2C}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FC40B459-0488-49E7-B0FA-18CA321735CD}" type="presParOf" srcId="{60A0A9F2-6371-4387-8B0C-2C0172C38E70}" destId="{31C6F1E7-3206-4D86-ABFE-1D7109616DB2}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DCA6F308-CD31-4E50-97B4-C2ADB10F13E9}" type="presParOf" srcId="{31C6F1E7-3206-4D86-ABFE-1D7109616DB2}" destId="{34F36A58-AD88-4990-B800-0E0F5C32469D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A868D48E-EAC5-4F89-9144-5C0D587DD221}" type="presParOf" srcId="{34F36A58-AD88-4990-B800-0E0F5C32469D}" destId="{10637A0B-F521-41A7-AFE9-854DD63F2B65}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9EC49286-D1D8-4721-AE61-31AAFD0EF556}" type="presParOf" srcId="{34F36A58-AD88-4990-B800-0E0F5C32469D}" destId="{18C388CD-0C92-4287-9190-E993638B3DC9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A8765E3-D5ED-4FFC-8422-68C6CF2261F3}" type="presParOf" srcId="{31C6F1E7-3206-4D86-ABFE-1D7109616DB2}" destId="{DB37AFA6-C00E-48A9-9DF2-6FFCEDF7F2C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D11BDDE8-81B6-4B10-B64E-B895B0122412}" type="presParOf" srcId="{31C6F1E7-3206-4D86-ABFE-1D7109616DB2}" destId="{C3FD3176-7B31-4008-ADA7-4DA98DA806CC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BBF8820-ECD9-4DF4-81CC-10BACF50C43C}" type="presParOf" srcId="{DE192776-0347-4C5E-8966-3B041B72D6A1}" destId="{CC07F6AD-0067-4B0C-92D8-746AC3CF7763}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{71A22900-ABBB-4D25-A1EC-7E167BA774EE}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{E4D527E5-7DCD-4AC4-BCEC-61969D480ABB}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D235FB53-DA8E-47F9-B18E-7D6554A873DC}" type="presParOf" srcId="{8BC6D9EF-8CA4-4C17-ACCD-15DB99C07209}" destId="{847C5C7C-EEC8-4ED4-8D5A-748752305967}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{515C4E35-981F-4274-9351-137FB5BE0674}" type="presParOf" srcId="{847C5C7C-EEC8-4ED4-8D5A-748752305967}" destId="{CF93F38B-BCCA-4856-B372-933B6B0D1C98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3838DA0E-A129-4048-8960-20DA01BC0250}" type="presParOf" srcId="{CF93F38B-BCCA-4856-B372-933B6B0D1C98}" destId="{5D93FA95-B3B7-413F-BA10-87BB48BAA5EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B89F2AB8-ADFF-4A60-A30B-AB5F9DB7A50C}" type="presParOf" srcId="{CF93F38B-BCCA-4856-B372-933B6B0D1C98}" destId="{AB8F47AA-86FF-4082-9DFF-80A8D7FF529A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{81273E58-C41B-46E9-9A79-E2334EB12975}" type="presParOf" srcId="{847C5C7C-EEC8-4ED4-8D5A-748752305967}" destId="{5DDDFED7-6E25-4F22-85C4-D6D2CE41BCAC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F6870ABB-587F-49E0-BF0A-A5A45D035DAC}" type="presParOf" srcId="{5DDDFED7-6E25-4F22-85C4-D6D2CE41BCAC}" destId="{077321E9-DBF1-4F58-BCA0-DC9C478CAB37}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4233AEB5-0E96-403A-9016-48089B9BB05E}" type="presParOf" srcId="{5DDDFED7-6E25-4F22-85C4-D6D2CE41BCAC}" destId="{A029EF00-F68E-4C99-A9CB-5B74133B8015}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{641AF933-0AC0-49C0-ADE7-D5A6256E62D8}" type="presParOf" srcId="{A029EF00-F68E-4C99-A9CB-5B74133B8015}" destId="{A1695097-8375-4A1F-A85F-811B3883CE29}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE606898-44A3-4EBC-935E-99EF92B5C6AF}" type="presParOf" srcId="{A1695097-8375-4A1F-A85F-811B3883CE29}" destId="{3698DB97-9786-452D-94B3-097923008C50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C43FA718-19E7-4834-936C-7FF17DBD2CCA}" type="presParOf" srcId="{A1695097-8375-4A1F-A85F-811B3883CE29}" destId="{8E70F6B7-A0E4-4B0F-B869-2ABD9D95DAE4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF5189A0-E170-4212-82A6-7DDCE3D699D1}" type="presParOf" srcId="{A029EF00-F68E-4C99-A9CB-5B74133B8015}" destId="{896A6DF0-2A9F-4862-AEAD-221E6C1A1CB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BBADC6CB-74AB-423D-9AF6-0D06B2FFC3D4}" type="presParOf" srcId="{A029EF00-F68E-4C99-A9CB-5B74133B8015}" destId="{D36DE821-2DF8-4845-A81D-81F37E936524}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B5841499-A177-41D4-AD3A-EA7674AC1E02}" type="presParOf" srcId="{847C5C7C-EEC8-4ED4-8D5A-748752305967}" destId="{EB4A5B27-1310-4A07-A93D-0B7FB0118FE5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9A0B27BE-A8E3-488C-8105-7842BF85E3E9}" type="presParOf" srcId="{B3049636-F373-4EDA-87C5-ACDD2CF1BB54}" destId="{2098D6ED-3D3D-427C-92AC-4F4588A22B21}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId20" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -13651,6 +16496,2392 @@
       <dsp:txXfrm>
         <a:off x="4296165" y="687926"/>
         <a:ext cx="968836" cy="484418"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{077321E9-DBF1-4F58-BCA0-DC9C478CAB37}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5294354" y="1288071"/>
+          <a:ext cx="129066" cy="395803"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="395803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="395803"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E4D527E5-7DCD-4AC4-BCEC-61969D480ABB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3035694" y="677158"/>
+          <a:ext cx="2602836" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2602836" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2602836" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F6248B41-3D21-4B34-8E14-D940D4CD2E2C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4253219" y="1288071"/>
+          <a:ext cx="129066" cy="1617630"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1617630"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="1617630"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{599EE780-B39D-470B-84D7-99317D87AD1A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4253219" y="1288071"/>
+          <a:ext cx="129066" cy="1006716"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1006716"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="1006716"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{245F04D5-8494-41C8-8678-30B5F2EBD06D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4253219" y="1288071"/>
+          <a:ext cx="129066" cy="395803"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="395803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="395803"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A0165A9E-7D49-4BBB-B647-FDDADD06AD2A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3035694" y="677158"/>
+          <a:ext cx="1561701" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1561701" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1561701" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7FA49DC4-A94D-4A09-8B7E-482F66DEF5FB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3212085" y="1288071"/>
+          <a:ext cx="129066" cy="395803"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="395803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="395803"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{03BB564C-4DF1-4E05-A0CC-26CEEB7F72C3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3035694" y="677158"/>
+          <a:ext cx="520567" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="520567" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="520567" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7EFB4F87-E8DB-46E5-9F96-6FC1837C263D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2515127" y="677158"/>
+          <a:ext cx="520567" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="520567" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="520567" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A24AB40C-088C-448E-AFE9-6C05E68DB465}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1129816" y="1288071"/>
+          <a:ext cx="129066" cy="395803"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="395803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="395803"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0AF4B038-E147-42CC-A417-D40ABA702CE2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1473993" y="677158"/>
+          <a:ext cx="1561701" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1561701" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1561701" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{27E339FD-0A41-405B-A965-1930DA30B400}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="88682" y="1898985"/>
+          <a:ext cx="129066" cy="2228543"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2228543"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="2228543"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D478D909-F0B2-4509-8309-ABFCFDEDD80A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="88682" y="1898985"/>
+          <a:ext cx="129066" cy="1617630"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1617630"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="1617630"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{1521F57A-92BB-4AD3-B870-2787061D8AF2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="88682" y="1898985"/>
+          <a:ext cx="129066" cy="1006716"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1006716"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="1006716"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{39016D2F-521F-4096-A05F-8FEE5FDD6CE7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="88682" y="1898985"/>
+          <a:ext cx="129066" cy="395803"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="395803"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="129066" y="395803"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3E327282-0478-4CF9-B25B-8F7933DEBDD1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="387138" y="1288071"/>
+          <a:ext cx="91440" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{77EF6835-9C69-48BB-A1BB-C3E8E460BD33}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="432858" y="677158"/>
+          <a:ext cx="2602836" cy="180692"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="2602836" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2602836" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="90346"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="180692"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9D90140D-12A9-48EE-BE1E-CD59A7ADB807}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2605473" y="246937"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Root</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2605473" y="246937"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{435A6278-380D-4F4B-B253-AE6D2EE5BEE7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2637" y="857850"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2637" y="857850"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CD7732E3-20FF-46AD-90D9-501FAEB87E5A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2637" y="1468764"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Model 1</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2637" y="1468764"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5789A0CC-91D6-40FC-A70B-E030D43B9186}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="217748" y="2079678"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="217748" y="2079678"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9C024EB4-4216-47D4-B7AE-82314E1F1FD5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="217748" y="2690591"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Vectorizers</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="217748" y="2690591"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8F555515-392E-4630-AD45-7855EC487D60}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="217748" y="3301505"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Metadata</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="217748" y="3301505"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{97B51F5B-E36A-475B-9B89-AEB65BFE4751}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="217748" y="3912418"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>CSV</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="217748" y="3912418"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3EA73C0B-2AA8-49C9-9F6D-A27B29186052}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1043772" y="857850"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Train</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1043772" y="857850"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A39ADBBD-C982-4020-B3E1-8D9896A81BC1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1258882" y="1468764"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1258882" y="1468764"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{93CEC41D-3533-4094-8E96-A9FF1ECC00A0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2084906" y="857850"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>ipynb</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2084906" y="857850"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1553333B-4009-44AA-A04C-9AC60B344723}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3126041" y="857850"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Analyze</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3126041" y="857850"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C5F06955-6995-48FB-9DFD-CC1941007D0E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3341151" y="1468764"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3341151" y="1468764"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AC1BA703-F4DF-4539-9CAD-231B632F155A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4167175" y="857850"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Predicting</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4167175" y="857850"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{47895908-4725-45FB-8E81-4B1F501B3FE6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4382285" y="1468764"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Images</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4382285" y="1468764"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{769E2304-F59D-4A05-9112-8189E7C3E40B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4382285" y="2079678"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4382285" y="2079678"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{10637A0B-F521-41A7-AFE9-854DD63F2B65}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4382285" y="2690591"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>CSV</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4382285" y="2690591"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5D93FA95-B3B7-413F-BA10-87BB48BAA5EF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5208309" y="857850"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>History</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5208309" y="857850"/>
+        <a:ext cx="860441" cy="430220"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3698DB97-9786-452D-94B3-097923008C50}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5423420" y="1468764"/>
+          <a:ext cx="860441" cy="430220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Text_Files</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5423420" y="1468764"/>
+        <a:ext cx="860441" cy="430220"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -17095,6 +22326,1152 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="1000"/>
+    <dgm:cat type="convert" pri="6000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2" type="asst">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="4" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="5" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11" type="asst"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+        <dgm:pt modelId="14"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="15" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="18" srcId="1" destId="14" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="hierChild1">
+    <dgm:varLst>
+      <dgm:orgChart val="1"/>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="des" forName="rootComposite1" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite1" refType="w" refFor="des" refForName="rootComposite1" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" refFor="des" refForName="rootComposite1" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="rootComposite3" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite3" refType="w" refFor="des" refForName="rootComposite1" fact="0.5"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ"/>
+      <dgm:constr type="sp" for="des" op="equ"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot1" refType="w" refFor="des" refForName="rootComposite1" fact="0.21"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot2" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot3" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite1" fact="0.21"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild4" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild5" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild6" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild7" refType="sibSp"/>
+      <dgm:constr type="secSibSp" refType="w" refFor="des" refForName="rootComposite1" fact="0.21"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild2" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild3" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild4" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild5" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild6" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild7" refType="secSibSp"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="hierRoot1">
+          <dgm:varLst>
+            <dgm:hierBranch val="init"/>
+          </dgm:varLst>
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="hierBranch" op="equ" val="l">
+              <dgm:choose name="Name7">
+                <dgm:if name="Name8" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tR"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.65"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name9">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tR"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.25"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:if name="Name10" func="var" arg="hierBranch" op="equ" val="r">
+              <dgm:choose name="Name11">
+                <dgm:if name="Name12" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tL"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.65"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name13">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tL"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.25"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:if name="Name14" func="var" arg="hierBranch" op="equ" val="hang">
+              <dgm:alg type="hierRoot"/>
+              <dgm:constrLst>
+                <dgm:constr type="alignOff" val="0.65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name15">
+              <dgm:alg type="hierRoot"/>
+              <dgm:constrLst>
+                <dgm:constr type="alignOff"/>
+                <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite1">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name16">
+              <dgm:if name="Name17" func="var" arg="hierBranch" op="equ" val="init">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:if name="Name18" func="var" arg="hierBranch" op="equ" val="l">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector1" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:if name="Name19" func="var" arg="hierBranch" op="equ" val="r">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name20">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector1" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText1" styleLbl="node0">
+              <dgm:varLst>
+                <dgm:chPref val="3"/>
+              </dgm:varLst>
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="primFontSz" val="65"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector1" moveWith="rootText1">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild2">
+            <dgm:choose name="Name21">
+              <dgm:if name="Name22" func="var" arg="hierBranch" op="equ" val="l">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="r"/>
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:if name="Name23" func="var" arg="hierBranch" op="equ" val="r">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:if name="Name24" func="var" arg="hierBranch" op="equ" val="hang">
+                <dgm:choose name="Name25">
+                  <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="l"/>
+                      <dgm:param type="linDir" val="fromL"/>
+                      <dgm:param type="secChAlign" val="t"/>
+                      <dgm:param type="secLinDir" val="fromT"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name27">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="l"/>
+                      <dgm:param type="linDir" val="fromR"/>
+                      <dgm:param type="secChAlign" val="t"/>
+                      <dgm:param type="secLinDir" val="fromT"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:else name="Name28">
+                <dgm:choose name="Name29">
+                  <dgm:if name="Name30" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild"/>
+                  </dgm:if>
+                  <dgm:else name="Name31">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="rep2a" axis="ch" ptType="nonAsst">
+              <dgm:forEach name="Name32" axis="precedSib" ptType="parTrans" st="-1" cnt="1">
+                <dgm:choose name="Name33">
+                  <dgm:if name="Name34" func="var" arg="hierBranch" op="equ" val="std">
+                    <dgm:layoutNode name="Name35">
+                      <dgm:alg type="conn">
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="tCtr"/>
+                        <dgm:param type="bendPt" val="end"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:if name="Name36" func="var" arg="hierBranch" op="equ" val="init">
+                    <dgm:layoutNode name="Name37">
+                      <dgm:choose name="Name38">
+                        <dgm:if name="Name39" axis="self" func="depth" op="lte" val="2">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="bCtr"/>
+                            <dgm:param type="endPts" val="tCtr"/>
+                            <dgm:param type="bendPt" val="end"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name40">
+                          <dgm:choose name="Name41">
+                            <dgm:if name="Name42" axis="par des" func="maxDepth" op="lte" val="1">
+                              <dgm:choose name="Name43">
+                                <dgm:if name="Name44" axis="par ch" ptType="node asst" func="cnt" op="gte" val="1">
+                                  <dgm:alg type="conn">
+                                    <dgm:param type="connRout" val="bend"/>
+                                    <dgm:param type="dim" val="1D"/>
+                                    <dgm:param type="endSty" val="noArr"/>
+                                    <dgm:param type="begPts" val="bCtr"/>
+                                    <dgm:param type="endPts" val="midL midR"/>
+                                  </dgm:alg>
+                                </dgm:if>
+                                <dgm:else name="Name45">
+                                  <dgm:alg type="conn">
+                                    <dgm:param type="connRout" val="bend"/>
+                                    <dgm:param type="dim" val="1D"/>
+                                    <dgm:param type="endSty" val="noArr"/>
+                                    <dgm:param type="begPts" val="bCtr"/>
+                                    <dgm:param type="endPts" val="midL midR"/>
+                                    <dgm:param type="srcNode" val="rootConnector"/>
+                                  </dgm:alg>
+                                </dgm:else>
+                              </dgm:choose>
+                            </dgm:if>
+                            <dgm:else name="Name46">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="tCtr"/>
+                                <dgm:param type="bendPt" val="end"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:if name="Name47" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:layoutNode name="Name48">
+                      <dgm:alg type="conn">
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL midR"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:else name="Name49">
+                    <dgm:layoutNode name="Name50">
+                      <dgm:choose name="Name51">
+                        <dgm:if name="Name52" axis="self" func="depth" op="lte" val="2">
+                          <dgm:choose name="Name53">
+                            <dgm:if name="Name54" axis="par ch" ptType="node asst" func="cnt" op="gte" val="1">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name55">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                                <dgm:param type="srcNode" val="rootConnector1"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:if>
+                        <dgm:else name="Name56">
+                          <dgm:choose name="Name57">
+                            <dgm:if name="Name58" axis="par ch" ptType="node asst" func="cnt" op="gte" val="1">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name59">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                                <dgm:param type="srcNode" val="rootConnector"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:forEach>
+              <dgm:layoutNode name="hierRoot2">
+                <dgm:varLst>
+                  <dgm:hierBranch val="init"/>
+                </dgm:varLst>
+                <dgm:choose name="Name60">
+                  <dgm:if name="Name61" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:choose name="Name62">
+                      <dgm:if name="Name63" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tR"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name64">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tR"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.25"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name65" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:choose name="Name66">
+                      <dgm:if name="Name67" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tL"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name68">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tL"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.25"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name69" func="var" arg="hierBranch" op="equ" val="std">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff"/>
+                      <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name70" func="var" arg="hierBranch" op="equ" val="init">
+                    <dgm:choose name="Name71">
+                      <dgm:if name="Name72" axis="des" func="maxDepth" op="lte" val="1">
+                        <dgm:choose name="Name73">
+                          <dgm:if name="Name74" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                            <dgm:alg type="hierRoot">
+                              <dgm:param type="hierAlign" val="tL"/>
+                            </dgm:alg>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                            <dgm:constrLst>
+                              <dgm:constr type="alignOff" val="0.65"/>
+                            </dgm:constrLst>
+                          </dgm:if>
+                          <dgm:else name="Name75">
+                            <dgm:alg type="hierRoot">
+                              <dgm:param type="hierAlign" val="tL"/>
+                            </dgm:alg>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                            <dgm:constrLst>
+                              <dgm:constr type="alignOff" val="0.25"/>
+                            </dgm:constrLst>
+                          </dgm:else>
+                        </dgm:choose>
+                      </dgm:if>
+                      <dgm:else name="Name76">
+                        <dgm:alg type="hierRoot"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:else name="Name77">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="rootComposite">
+                  <dgm:alg type="composite"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                  <dgm:choose name="Name78">
+                    <dgm:if name="Name79" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name80" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name81" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:else name="Name82">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="rootText">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="primFontSz" val="65"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="rootConnector" moveWith="rootText">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild4">
+                  <dgm:choose name="Name83">
+                    <dgm:if name="Name84" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="r"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name85" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name86" func="var" arg="hierBranch" op="equ" val="hang">
+                      <dgm:choose name="Name87">
+                        <dgm:if name="Name88" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name89">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name90" func="var" arg="hierBranch" op="equ" val="std">
+                      <dgm:choose name="Name91">
+                        <dgm:if name="Name92" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild"/>
+                        </dgm:if>
+                        <dgm:else name="Name93">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name94" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:choose name="Name95">
+                        <dgm:if name="Name96" axis="des" func="maxDepth" op="lte" val="1">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name97">
+                          <dgm:choose name="Name98">
+                            <dgm:if name="Name99" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="hierChild"/>
+                            </dgm:if>
+                            <dgm:else name="Name100">
+                              <dgm:alg type="hierChild">
+                                <dgm:param type="linDir" val="fromR"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:else name="Name101"/>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name102" ref="rep2a"/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild5">
+                  <dgm:choose name="Name103">
+                    <dgm:if name="Name104" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromL"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name105">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromR"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name106" ref="rep2b"/>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+            </dgm:forEach>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild3">
+            <dgm:choose name="Name107">
+              <dgm:if name="Name108" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromL"/>
+                  <dgm:param type="secChAlign" val="t"/>
+                  <dgm:param type="secLinDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name109">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromR"/>
+                  <dgm:param type="secChAlign" val="t"/>
+                  <dgm:param type="secLinDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="rep2b" axis="ch" ptType="asst">
+              <dgm:forEach name="Name110" axis="precedSib" ptType="parTrans" st="-1" cnt="1">
+                <dgm:layoutNode name="Name111">
+                  <dgm:alg type="conn">
+                    <dgm:param type="connRout" val="bend"/>
+                    <dgm:param type="dim" val="1D"/>
+                    <dgm:param type="endSty" val="noArr"/>
+                    <dgm:param type="begPts" val="bCtr"/>
+                    <dgm:param type="endPts" val="midL midR"/>
+                  </dgm:alg>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:layoutNode name="hierRoot3">
+                <dgm:varLst>
+                  <dgm:hierBranch val="init"/>
+                </dgm:varLst>
+                <dgm:choose name="Name112">
+                  <dgm:if name="Name113" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:alg type="hierRoot">
+                      <dgm:param type="hierAlign" val="tR"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name114" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:alg type="hierRoot">
+                      <dgm:param type="hierAlign" val="tL"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name115" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name116" func="var" arg="hierBranch" op="equ" val="std">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff"/>
+                      <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name117" func="var" arg="hierBranch" op="equ" val="init">
+                    <dgm:choose name="Name118">
+                      <dgm:if name="Name119" axis="des" func="maxDepth" op="lte" val="1">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tL"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name120">
+                        <dgm:alg type="hierRoot"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:else name="Name121"/>
+                </dgm:choose>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="rootComposite3">
+                  <dgm:alg type="composite"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                  <dgm:choose name="Name122">
+                    <dgm:if name="Name123" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name124" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector3" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name125" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:else name="Name126">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector3" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="rootText3">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="primFontSz" val="65"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="rootConnector3" moveWith="rootText1">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild6">
+                  <dgm:choose name="Name127">
+                    <dgm:if name="Name128" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="r"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name129" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name130" func="var" arg="hierBranch" op="equ" val="hang">
+                      <dgm:choose name="Name131">
+                        <dgm:if name="Name132" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name133">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name134" func="var" arg="hierBranch" op="equ" val="std">
+                      <dgm:choose name="Name135">
+                        <dgm:if name="Name136" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild"/>
+                        </dgm:if>
+                        <dgm:else name="Name137">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name138" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:choose name="Name139">
+                        <dgm:if name="Name140" axis="des" func="maxDepth" op="lte" val="1">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name141">
+                          <dgm:alg type="hierChild"/>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:else name="Name142"/>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name143" ref="rep2a"/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild7">
+                  <dgm:choose name="Name144">
+                    <dgm:if name="Name145" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromL"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name146">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromR"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name147" ref="rep2b"/>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -19164,6 +25541,1040 @@
 </file>
 
 <file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle4.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -20668,15 +28079,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>17146</xdr:rowOff>
+      <xdr:rowOff>116206</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -20691,7 +28102,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="5229225"/>
+          <a:off x="190500" y="5324475"/>
           <a:ext cx="6286500" cy="5107306"/>
           <a:chOff x="249555" y="19397"/>
           <a:chExt cx="6286500" cy="5101243"/>
@@ -20905,6 +28316,168 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>20956</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="Group 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738620D4-C9A1-4E6B-8744-187BE8E47676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8553450" y="5924119"/>
+          <a:ext cx="6286500" cy="4589577"/>
+          <a:chOff x="249555" y="514350"/>
+          <a:chExt cx="6286500" cy="4606290"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="18" name="Diagram 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0406B492-DEDD-4529-AC86-75D086DF13BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="249555" y="514350"/>
+          <a:ext cx="6286500" cy="4606290"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId16" r:lo="rId17" r:qs="rId18" r:cs="rId19"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Arrow: Curved Up 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E22356-3DDB-4FC8-9C77-E95DB1331167}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1895476" y="2427812"/>
+            <a:ext cx="4623434" cy="2107752"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedUpArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 4658"/>
+              <a:gd name="adj2" fmla="val 23313"/>
+              <a:gd name="adj3" fmla="val 24543"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Arrow: Curved Up 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD891BC-7DAE-474D-8F35-EDB3D2576A1F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4091940" y="2432455"/>
+            <a:ext cx="2386965" cy="1662870"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedUpArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 5786"/>
+              <a:gd name="adj2" fmla="val 27182"/>
+              <a:gd name="adj3" fmla="val 28931"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21206,11 +28779,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E352D8AE-20A7-4EF5-8E9A-CA8B01E30CD5}">
+  <dimension ref="B3:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FBA681-855B-496B-80E5-FBA3F34502E4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sandbox/File_Structure_Images.xlsx
+++ b/Sandbox/File_Structure_Images.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkrei\OneDrive\Desktop\Coding_Projects\Text_ML_Classification_UMN\Text_ML_Classification_UMN\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E4881B98-2B59-4E2B-8D43-E8F27F3B497C}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{25D4AE5B-9246-4B1F-9C90-956C5E1CACC0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
   </bookViews>
   <sheets>
     <sheet name="Libraries" sheetId="2" r:id="rId1"/>
     <sheet name="File_Images" sheetId="1" r:id="rId2"/>
+    <sheet name="Cell Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>Library Name</t>
   </si>
@@ -236,6 +237,216 @@
   </si>
   <si>
     <t>Numpy 20.2</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Imports &amp; Installs</t>
+  </si>
+  <si>
+    <t>Import &amp; Install Libraries. See Dependencies for more information</t>
+  </si>
+  <si>
+    <t>Downloading Files</t>
+  </si>
+  <si>
+    <t>Get/Replace Github</t>
+  </si>
+  <si>
+    <t>Repo_location, clone_new repo, remove_old repo</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Make a mental note of the time stamp, any files saved during this session will use the timestamp</t>
+  </si>
+  <si>
+    <t>Download Files</t>
+  </si>
+  <si>
+    <t>Vectorization</t>
+  </si>
+  <si>
+    <t>Tokenization</t>
+  </si>
+  <si>
+    <t>Filter Strings</t>
+  </si>
+  <si>
+    <t>Stem Words</t>
+  </si>
+  <si>
+    <t>Vectorizer</t>
+  </si>
+  <si>
+    <t>Matrix Array</t>
+  </si>
+  <si>
+    <t>Visualize Vectors</t>
+  </si>
+  <si>
+    <t>Break document into tokens (sentences)</t>
+  </si>
+  <si>
+    <t>Remove stop words and unnecessary characters</t>
+  </si>
+  <si>
+    <t>Convert words to root (working = work)</t>
+  </si>
+  <si>
+    <t>Vectorize stemmed words</t>
+  </si>
+  <si>
+    <t>Visualize Matrix Array</t>
+  </si>
+  <si>
+    <t>Model Training</t>
+  </si>
+  <si>
+    <t>Print Score</t>
+  </si>
+  <si>
+    <t>Grid Search</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>Model Parameters</t>
+  </si>
+  <si>
+    <t>Generate Model</t>
+  </si>
+  <si>
+    <t>Move Files</t>
+  </si>
+  <si>
+    <t>Customize grid search settings</t>
+  </si>
+  <si>
+    <t>Example visual of clustering</t>
+  </si>
+  <si>
+    <t>Customize model training settings</t>
+  </si>
+  <si>
+    <t>Generate model, print confirmation model has been successfully creaed</t>
+  </si>
+  <si>
+    <t>Option: move txt files to the Analyze or History files</t>
+  </si>
+  <si>
+    <t>Load Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate </t>
+  </si>
+  <si>
+    <t>Load Master CSV</t>
+  </si>
+  <si>
+    <t>Load master csv file from Github Repo</t>
+  </si>
+  <si>
+    <t>Load model.pkl and vec pkl files from Github Repo</t>
+  </si>
+  <si>
+    <t>Model Selection</t>
+  </si>
+  <si>
+    <t>Using the dropdown, select which model you would like to proceed with</t>
+  </si>
+  <si>
+    <t>Define Cluster Labels</t>
+  </si>
+  <si>
+    <t>Print model clusters and example words within each cluster</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>Predict String</t>
+  </si>
+  <si>
+    <t>Enter a string value to get an immediate prediction</t>
+  </si>
+  <si>
+    <t>Potential Topics</t>
+  </si>
+  <si>
+    <t>Summarization of corporate risk factor disclosure through topic modeling by Bao Datta</t>
+  </si>
+  <si>
+    <t>Get Topics</t>
+  </si>
+  <si>
+    <t>Match potential topics with cluster labels</t>
+  </si>
+  <si>
+    <t>Predict Documents</t>
+  </si>
+  <si>
+    <t>Prediction Helper Functions</t>
+  </si>
+  <si>
+    <t>Prediction Functions (no returns in this cell)</t>
+  </si>
+  <si>
+    <t>Predict Files</t>
+  </si>
+  <si>
+    <t>Identify source folder for text files to be predicted and which file results should be saved in</t>
+  </si>
+  <si>
+    <t>Master List</t>
+  </si>
+  <si>
+    <t>Show local copy of master csv file (columns : companies, rows : clusters)</t>
+  </si>
+  <si>
+    <t>Visualizations</t>
+  </si>
+  <si>
+    <t>Stacked Bar</t>
+  </si>
+  <si>
+    <t>Visualize top companies filtered by cluster or all companies with no filters</t>
+  </si>
+  <si>
+    <t>Heatmap</t>
+  </si>
+  <si>
+    <t>Visualize heat map of company predictions</t>
+  </si>
+  <si>
+    <t>Company Clusters</t>
+  </si>
+  <si>
+    <t>Show local copy of company_clusters csv (columns : clusters, rows : companies)</t>
+  </si>
+  <si>
+    <t>Generate Color coded Text</t>
+  </si>
+  <si>
+    <t>Generate color coded text files in html format</t>
+  </si>
+  <si>
+    <t>Polar Plots per Cluster</t>
+  </si>
+  <si>
+    <t>Spider plots showing individual company cluster characteristics</t>
+  </si>
+  <si>
+    <t>Cluster Visualization</t>
   </si>
 </sst>
 </file>
@@ -28782,7 +28993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E352D8AE-20A7-4EF5-8E9A-CA8B01E30CD5}">
   <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -29056,4 +29267,436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C609E-D0E6-4C47-B5F2-ED017BD435DB}">
+  <dimension ref="B2:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3.2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>3.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3.4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3.6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4.3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5.2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>5.3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>5.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6.1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6.2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>6.3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7.1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>7.2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>7.3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>8.1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>8.4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>8.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sandbox/File_Structure_Images.xlsx
+++ b/Sandbox/File_Structure_Images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkrei\OneDrive\Desktop\Coding_Projects\Text_ML_Classification_UMN\Text_ML_Classification_UMN\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{25D4AE5B-9246-4B1F-9C90-956C5E1CACC0}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{725F9594-1433-4B78-B952-4AE250A29FEE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
   </bookViews>
   <sheets>
     <sheet name="Libraries" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t>Library Name</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Imports &amp; Installs</t>
   </si>
   <si>
-    <t>Import &amp; Install Libraries. See Dependencies for more information</t>
-  </si>
-  <si>
     <t>Downloading Files</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>Define Cluster Labels</t>
   </si>
   <si>
-    <t>Print model clusters and example words within each cluster</t>
-  </si>
-  <si>
     <t>Predictions</t>
   </si>
   <si>
@@ -448,6 +442,36 @@
   <si>
     <t>Cluster Visualization</t>
   </si>
+  <si>
+    <t>Print model clusters and closest words</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Viz Only</t>
+  </si>
+  <si>
+    <t>Check for Requirements</t>
+  </si>
+  <si>
+    <t>Load requirements.txt from repo</t>
+  </si>
+  <si>
+    <t>Install Packages</t>
+  </si>
+  <si>
+    <t>Install packages from requirements.txt</t>
+  </si>
+  <si>
+    <t>Import Dependencies</t>
+  </si>
+  <si>
+    <t>Import Libraries</t>
+  </si>
 </sst>
 </file>
 
@@ -470,12 +494,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -490,12 +532,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29271,429 +29316,544 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C609E-D0E6-4C47-B5F2-ED017BD435DB}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="F4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="F6">
+        <v>1.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="F7">
+        <v>1.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="F9">
+        <v>2.1</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2.1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="F10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C6" t="s">
-        <v>76</v>
+      <c r="G10" t="s">
+        <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>2.2999999999999998</v>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="F11">
+        <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>3</v>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="F12">
+        <v>3.1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G12" t="s">
         <v>79</v>
       </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>3.1</v>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="F13">
+        <v>3.2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>3.2</v>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="F14">
+        <v>3.3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>3.3</v>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="F15">
+        <v>3.4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>3.4</v>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="F16">
+        <v>3.5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G16" t="s">
         <v>83</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>3.5</v>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="F17">
+        <v>3.6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>3.6</v>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="F19">
+        <v>4.0999999999999996</v>
       </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="G19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>4.0999999999999996</v>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="F20">
+        <v>4.2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G20" t="s">
         <v>92</v>
       </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>4.2</v>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="F21">
+        <v>4.3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G21" t="s">
         <v>93</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>4.3</v>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="F22">
+        <v>4.4000000000000004</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G22" t="s">
         <v>94</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>4.4000000000000004</v>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="F23">
+        <v>4.5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="G23" t="s">
         <v>95</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>4.5</v>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="F24">
+        <v>4.5999999999999996</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G24" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>4.5999999999999996</v>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="F25">
+        <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>5</v>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+      <c r="F26">
+        <v>5.0999999999999996</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+      <c r="F27">
+        <v>5.2</v>
+      </c>
+      <c r="G27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="H27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>5.2</v>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+      <c r="F28">
+        <v>5.3</v>
       </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>5.3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="H28" t="s">
         <v>108</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+      <c r="F29">
+        <v>5.4</v>
+      </c>
+      <c r="G29" t="s">
         <v>109</v>
       </c>
+      <c r="H29" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>5.4</v>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+      <c r="F30">
+        <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G30" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+      <c r="F31">
+        <v>6.1</v>
+      </c>
+      <c r="G31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="H31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>6.1</v>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+      <c r="F32">
+        <v>6.2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G32" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>6.2</v>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+      <c r="F33">
+        <v>6.3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G33" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>6.3</v>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+      <c r="F34">
+        <v>7</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G34" t="s">
         <v>117</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+      <c r="F35">
+        <v>7.1</v>
+      </c>
+      <c r="G35" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="H35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>7.1</v>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="F36">
+        <v>7.2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G36" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
+      <c r="H36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>7.2</v>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+      <c r="F37">
+        <v>7.3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G37" t="s">
         <v>122</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>7.3</v>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="F38">
+        <v>8</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G38" t="s">
         <v>124</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="F39">
+        <v>8.1</v>
+      </c>
+      <c r="G39" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="H39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>8.1</v>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="F40">
+        <v>8.1999999999999993</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G40" t="s">
         <v>127</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>8.1999999999999993</v>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="F41">
+        <v>8.3000000000000007</v>
       </c>
-      <c r="C37" t="s">
+      <c r="G41" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="H41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>8.3000000000000007</v>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="F42">
+        <v>8.4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G42" t="s">
         <v>131</v>
       </c>
-      <c r="D38" t="s">
+      <c r="H42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>8.4</v>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="F43">
+        <v>8.5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G43" t="s">
         <v>133</v>
       </c>
-      <c r="D39" t="s">
+      <c r="H43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>8.5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="F44">
         <v>9</v>
       </c>
-      <c r="C41" t="s">
-        <v>137</v>
+      <c r="G44" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Sandbox/File_Structure_Images.xlsx
+++ b/Sandbox/File_Structure_Images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkrei\OneDrive\Desktop\Coding_Projects\Text_ML_Classification_UMN\Text_ML_Classification_UMN\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{725F9594-1433-4B78-B952-4AE250A29FEE}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C8ED9D64-A454-4AEA-B508-8063A52BF078}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
   </bookViews>
   <sheets>
     <sheet name="Libraries" sheetId="2" r:id="rId1"/>
@@ -29319,7 +29319,7 @@
   <dimension ref="B2:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sandbox/File_Structure_Images.xlsx
+++ b/Sandbox/File_Structure_Images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkrei\OneDrive\Desktop\Coding_Projects\Text_ML_Classification_UMN\Text_ML_Classification_UMN\Sandbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Desktop\Coding_Projects\Text_ML_Classification_UMN\Text_ML_Classification_UMN\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C8ED9D64-A454-4AEA-B508-8063A52BF078}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{D0FAB047-625F-4485-9406-20BA232ADC7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8637B7E5-038B-4C77-BA10-1921F9DD6B4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27C060C8-3C2D-4AF0-B539-3A24802BB540}"/>
   </bookViews>
   <sheets>
     <sheet name="Libraries" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Library Name</t>
   </si>
@@ -455,22 +455,25 @@
     <t>Viz Only</t>
   </si>
   <si>
-    <t>Check for Requirements</t>
-  </si>
-  <si>
     <t>Load requirements.txt from repo</t>
-  </si>
-  <si>
-    <t>Install Packages</t>
-  </si>
-  <si>
-    <t>Install packages from requirements.txt</t>
   </si>
   <si>
     <t>Import Dependencies</t>
   </si>
   <si>
     <t>Import Libraries</t>
+  </si>
+  <si>
+    <t>Install Requirements.txt</t>
+  </si>
+  <si>
+    <t>Get Documents</t>
+  </si>
+  <si>
+    <t>Dimension Reduction</t>
+  </si>
+  <si>
+    <t>Cosign Analysis Bar Chart</t>
   </si>
 </sst>
 </file>
@@ -29042,15 +29045,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -29064,12 +29067,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -29083,7 +29086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -29097,7 +29100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -29111,7 +29114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -29125,7 +29128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -29139,7 +29142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -29153,7 +29156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>67</v>
       </c>
@@ -29167,12 +29170,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -29186,7 +29189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
@@ -29200,7 +29203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
@@ -29214,7 +29217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -29228,7 +29231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
@@ -29242,7 +29245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -29256,7 +29259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
@@ -29270,17 +29273,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
@@ -29307,7 +29310,7 @@
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29316,23 +29319,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5C609E-D0E6-4C47-B5F2-ED017BD435DB}">
-  <dimension ref="B2:H44"/>
+  <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>139</v>
       </c>
@@ -29352,7 +29355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
@@ -29363,7 +29366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
@@ -29377,7 +29380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
@@ -29385,13 +29388,13 @@
         <v>1.2</v>
       </c>
       <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -29399,460 +29402,466 @@
         <v>1.3</v>
       </c>
       <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
         <v>142</v>
       </c>
-      <c r="H6" t="s">
-        <v>143</v>
-      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="F7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="F8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="F9">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="F10">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="F11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="F12">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="F13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="F14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="F15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
       <c r="F16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="F17">
-        <v>3.6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="F18">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="F19">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="F18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="F20">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="F19">
         <v>4.2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="F21">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="F20">
         <v>4.3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G20" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="F22">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="F21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="F23">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="F22">
         <v>4.5</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G22" t="s">
         <v>95</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="F24">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="F23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G23" t="s">
         <v>96</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="3"/>
-      <c r="F25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="3"/>
-      <c r="F26">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="F25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G25" t="s">
         <v>104</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="3"/>
-      <c r="F27">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="F26">
         <v>5.2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G26" t="s">
         <v>103</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="3"/>
-      <c r="F28">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="F27">
         <v>5.3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G27" t="s">
         <v>107</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="3"/>
-      <c r="F29">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="F28">
         <v>5.4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G28" t="s">
         <v>109</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="3"/>
-      <c r="F30">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="3"/>
-      <c r="F31">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="F30">
         <v>6.1</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G30" t="s">
         <v>111</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="3"/>
-      <c r="F32">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="F31">
         <v>6.2</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G31" t="s">
         <v>113</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="3"/>
-      <c r="F33">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+      <c r="F32">
         <v>6.3</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G32" t="s">
         <v>115</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H32" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="3"/>
-      <c r="F34">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+      <c r="F33">
         <v>7</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="3"/>
-      <c r="F35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+      <c r="F34">
         <v>7.1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G34" t="s">
         <v>118</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="F36">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+      <c r="F35">
         <v>7.2</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G35" t="s">
         <v>120</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="3"/>
-      <c r="F37">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+      <c r="F36">
         <v>7.3</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G36" t="s">
         <v>122</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="3"/>
       <c r="F38">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="H38" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="D39" s="3"/>
       <c r="F39">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="D40" s="3"/>
       <c r="F40">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="D41" s="3"/>
       <c r="F41">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="D42" s="3"/>
       <c r="F42">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="D43" s="3"/>
       <c r="F43">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="D44" s="3"/>
       <c r="F44">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="F45">
         <v>9</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>135</v>
       </c>
     </row>
